--- a/blogsite/edu/yuwen.xlsx
+++ b/blogsite/edu/yuwen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="769">
   <si>
     <t>题目</t>
   </si>
@@ -67,6 +67,9 @@
     <t>B、远水难救近火，远亲不如近邻</t>
   </si>
   <si>
+    <t>C、一根篱笆三个桩，一个好汉三个帮</t>
+  </si>
+  <si>
     <t>文化常识</t>
   </si>
   <si>
@@ -94,6 +97,15 @@
     <t>A、“哎，那边一个小伙伴，正低着头寻找着什么。”这句话应用欣喜的语气来读。</t>
   </si>
   <si>
+    <t>B、《大作家的小老师》一文告诉我们对任何人都应该平等相待，永远谦虚。</t>
+  </si>
+  <si>
+    <t>C、一阵疾风吹来，树木野草发出“沙沙”的声音。这里的“沙沙”是模拟事物发出的声音。</t>
+  </si>
+  <si>
+    <t>D、书写“区”“臣”“医”时，外框要写得上窄下宽，底边要平稳。</t>
+  </si>
+  <si>
     <t>字形；语言表达</t>
   </si>
   <si>
@@ -193,6 +205,9 @@
     <t>B、有问题时找找原因</t>
   </si>
   <si>
+    <t>C、只是不断努力，不总结</t>
+  </si>
+  <si>
     <t>语言表达</t>
   </si>
   <si>
@@ -212,6 +227,2100 @@
   </si>
   <si>
     <t>【分析】此题为开放性试题，如实填写即可。【点评】此题为了了解学生创造性学习情况，掌握第一手材料，希望把情况如实的说出来。以便在今后的教学中改进学习方法，使取得更好的成绩。</t>
+  </si>
+  <si>
+    <t>你是否经常阅读课外读物？（    ）</t>
+  </si>
+  <si>
+    <t>A、经常阅读</t>
+  </si>
+  <si>
+    <t>B、有时阅读</t>
+  </si>
+  <si>
+    <t>C、偶尔阅读</t>
+  </si>
+  <si>
+    <t>D、没时间阅读</t>
+  </si>
+  <si>
+    <t>你做作业时，遇到问题主要的解决方式是什么？（    ）</t>
+  </si>
+  <si>
+    <t>A、完全靠自己思考解决</t>
+  </si>
+  <si>
+    <t>B、找有关参考书</t>
+  </si>
+  <si>
+    <t>C、问老师或同学</t>
+  </si>
+  <si>
+    <t>D、不解决，等老师明天讲解</t>
+  </si>
+  <si>
+    <t>你上课时怎样做笔记？（    ）</t>
+  </si>
+  <si>
+    <t>A、写下老师的板书</t>
+  </si>
+  <si>
+    <t>B、在课本上圈点批注</t>
+  </si>
+  <si>
+    <t>C、默默地记在心里</t>
+  </si>
+  <si>
+    <t>你在预习时是否查阅有关资料？（    ）</t>
+  </si>
+  <si>
+    <t>A、经常找资料做进一步了解</t>
+  </si>
+  <si>
+    <t>B、偶尔找一点资料</t>
+  </si>
+  <si>
+    <t>C、没时间找资料</t>
+  </si>
+  <si>
+    <t>你的预习方法是什么？（    ）</t>
+  </si>
+  <si>
+    <t>A、看一看课本</t>
+  </si>
+  <si>
+    <t>B、力求弄懂新知识</t>
+  </si>
+  <si>
+    <t>C、借助教材完全掌握有关知识</t>
+  </si>
+  <si>
+    <t>你在课前会认真预习吗？（    ）</t>
+  </si>
+  <si>
+    <t>A、全部认真预习</t>
+  </si>
+  <si>
+    <t>B、基本上预习</t>
+  </si>
+  <si>
+    <t>C、有时预习</t>
+  </si>
+  <si>
+    <t>D、没时间预习</t>
+  </si>
+  <si>
+    <t>你个人的学习主动性如何？（    ）</t>
+  </si>
+  <si>
+    <t>A、主动完成学习任务</t>
+  </si>
+  <si>
+    <t>B、能够完成学习任务</t>
+  </si>
+  <si>
+    <t>C、不得不完成学习任务</t>
+  </si>
+  <si>
+    <t>D、经常来不及完成学习任务</t>
+  </si>
+  <si>
+    <t>你希望怎样学习？（    ）</t>
+  </si>
+  <si>
+    <t>A、独立支配学习时间</t>
+  </si>
+  <si>
+    <t>B、有一定自主权</t>
+  </si>
+  <si>
+    <t>C、希望老师与家长安排好，不要自主权</t>
+  </si>
+  <si>
+    <t>D、说不清楚</t>
+  </si>
+  <si>
+    <t>下面是与季节有关的成语，其中有误的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、春——鸟语花香  莺歌燕舞  一元复始  花团锦簇</t>
+  </si>
+  <si>
+    <t>B、夏——汗流浃背  铄石流金  骄阳似火  酷暑难耐</t>
+  </si>
+  <si>
+    <t>C、秋——一叶知秋  天高云淡  风和日丽  雁过留声</t>
+  </si>
+  <si>
+    <t>D、冬——冰天雪地  银装素裹  冰冻三尺  呵气成霜</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是先理解词义，C风和日丽：和风习习，阳光灿烂。形容晴朗暖和的天气。应是描写春天的词语。其它正确。  故答案为：C【点评】此题主要考查对词语的理解能力。</t>
+  </si>
+  <si>
+    <t>在下面句子中，成语运用恰当的共有几句？（    ）  ①白驹过隙，一转眼，我们都已经在校园里生活了六年了。②学习历史的意义是什么？一言以蔽之，是为了“鉴往知来”。③警察帮王妈妈找回了被拐骗的儿子，王妈妈对警察百感交集。④儿童节到了，开展哪些游艺活动好呢？同学们议论纷纷，莫衷一是。⑤李爷爷回到阔别已久的故乡，他感慨地说：“多年不见，故乡的变化真大呀，我有一种恍如隔世的感觉。”</t>
+  </si>
+  <si>
+    <t>A、一句</t>
+  </si>
+  <si>
+    <t>B、二句</t>
+  </si>
+  <si>
+    <t>C、三句</t>
+  </si>
+  <si>
+    <t>D、四句</t>
+  </si>
+  <si>
+    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．①“白驹过隙”比喻时间过得很快。与对应的语境相符。②可以更好地认知过去,现在和未来。与对应的语境相符。③百感交集：各种情感交织在一起。现指感触很多，形容心情十分复杂。用词不当，改为：千恩万谢。④莫衷一是：意思是指不能决定哪个是对的。形容意见分歧，没有一致的看法。与对应的语境相符。恍如隔世：指仿佛相隔了一世。多用来形容对时间变迁、事物变化之大的感慨。与对应的语境相符。【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
+  </si>
+  <si>
+    <t>下面词语中有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、荡漾  凋落  铁锈  柔韧  满院生辉</t>
+  </si>
+  <si>
+    <t>B、凄清  熏陶  荇藻  皎洁  美不胜收</t>
+  </si>
+  <si>
+    <t>C、数世同堂  应有尽有  千锤万击  炯炯有神</t>
+  </si>
+  <si>
+    <t>D、时光荏苒  不失时机  错失良机  迷途之返</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。D之—知。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>成语“望而却步”中“却”的意思是（    ）</t>
+  </si>
+  <si>
+    <t>A、表示转折</t>
+  </si>
+  <si>
+    <t>B、推辞，拒绝</t>
+  </si>
+  <si>
+    <t>C、后退</t>
+  </si>
+  <si>
+    <t>D、使退却</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。“望而却步”中“却”是后退。形容事物可怕或讨厌，使人一看就往后退缩。【点评】本题考查学生对词语的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>下列各组词语中，没有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、能歌擅舞     行善积得     两面三刀</t>
+  </si>
+  <si>
+    <t>B、赞叹不己     养尊处优     随心所浴</t>
+  </si>
+  <si>
+    <t>C、和睦相处     肃然起敬     遮天盖地</t>
+  </si>
+  <si>
+    <t>D、张灯节彩     万像更新     美不胜收</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A．擅—善、得—德B．己—已、浴—欲D．节—结、像—象。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下列各组词语中，划线字读音完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、正（zhēng）月    模（mú）样      载（zài）歌载舞     活佛（fó）</t>
+  </si>
+  <si>
+    <t>B、空（kòng）地     不禁（jìn）     哄（hōng）堂大笑    分（fèn）外</t>
+  </si>
+  <si>
+    <t>C、藏（zàng）戏     喝（hè）彩      迎风引吭（háng）    铺（pū）户</t>
+  </si>
+  <si>
+    <t>【分析】字音题的考查只要求识记不要求拼写,即侧重于考查识记、辨别、确定字音的能力,准确地判断其正确与否。B不禁（jìn改jīn）C铺（pū改pù）户  【点评】这道题目考查学生对汉字字音字形的掌握情况，是语文学习中最基础的知识。学生在平时的学习中要多读、多记、多写，才能够准确无误书写出来。</t>
+  </si>
+  <si>
+    <t>下面词语书写无误的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、大雁      忧伤      纠正      清翠</t>
+  </si>
+  <si>
+    <t>B、剪裁      建议      烦恼      草垫</t>
+  </si>
+  <si>
+    <t>C、塌步      半晌      神秘      犹豫</t>
+  </si>
+  <si>
+    <t>D、降临      愤怒      射剑      缘故</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。A、翠—脆C、塌—踏步D、剑—箭【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下面划线字读音无误的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、拼凑（zòu）    咽喉（yān）    血型（xuè）      蔬菜（shū）</t>
+  </si>
+  <si>
+    <t>B、蕴含（yùn）    寂寞（jì）     嫉妒（jí）       估摸（gǔ）</t>
+  </si>
+  <si>
+    <t>C、教诲（huì）    油漆（qī）     模样（mú）       假若（ruò）</t>
+  </si>
+  <si>
+    <t>D、濒临（bīn）    侍从（sì）     衣裳（shɑng）    杀菌（jūn）</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A拼凑（zòu改còu）B估摸（gǔ改gū）D侍从（sì改shì）【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
+  </si>
+  <si>
+    <t>客家的民居是（    ）</t>
+  </si>
+  <si>
+    <t>A、四合院</t>
+  </si>
+  <si>
+    <t>B、吊脚楼</t>
+  </si>
+  <si>
+    <t>C、竹楼</t>
+  </si>
+  <si>
+    <t>D、圆形房屋</t>
+  </si>
+  <si>
+    <t>课文内容理解</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾课文有关内容，比较判断正误。依据课文内容可知，客家的民居是圆形房屋。  故答案为：D【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>下列句子中不是因果关系的是（    ）</t>
+  </si>
+  <si>
+    <t>A、你既然来了，就别走了。</t>
+  </si>
+  <si>
+    <t>B、这个生物因为不能适应环境，所以灭绝了。</t>
+  </si>
+  <si>
+    <t>C、我爱花，所以也爱养花。</t>
+  </si>
+  <si>
+    <t>D、由于他平时肯下功夫，所以这次拿了第一。</t>
+  </si>
+  <si>
+    <t>句式衔接</t>
+  </si>
+  <si>
+    <t>【分析】考查关联词的运用。解答时要先理解分句前后表示的是何种关系，再根据句子的意思来来判断。A“你来了”并不是“不走”的理由。B、C、D前句都是原因，后句都是结果。故答案为：A【点评】本题考查学生对关联词语的使用。理解句子，分清分句前后之间的关系。</t>
+  </si>
+  <si>
+    <t>下列空格中应填的正确的一组标点符号是（    ）  屋子里口我是主人口屋子外口蝉是最高统治者口</t>
+  </si>
+  <si>
+    <t>A、，    ；    ，    。</t>
+  </si>
+  <si>
+    <t>B、，    。    ，    。</t>
+  </si>
+  <si>
+    <t>C、。    ，    ，    。</t>
+  </si>
+  <si>
+    <t>D、，    ，    ，    。</t>
+  </si>
+  <si>
+    <t>标点符号</t>
+  </si>
+  <si>
+    <t>【分析】此题主要考查学生对标点符号的掌握及运用。常用的点号有顿号、逗号、分号、句号、问号、冒号、叹号；常用的标号有引号、省略号、破折号、书名号、括号等。要了解标点符号的基本用法，重点掌握每一种标点符号的特殊用法，能正确使用标点符号。故：屋子里，我是主人；屋子外，蝉是最高统治者。  【点评】对于标点符号的考查有选择题、加标点题、修改题。所以平时的学习中，我们要用心体会标点符号的用法，书写过程中也要做到尽可能正确的使用标点符号，另外对于一些标点符号的特殊用法要加以积累。</t>
+  </si>
+  <si>
+    <t>下列汉字笔画、音序、部首都对的一组是（    ）  A．阁、9、G、各    B．凸、6、</t>
+  </si>
+  <si>
+    <t>A、lC．或、8、H、戈    D．久、3、J、久</t>
+  </si>
+  <si>
+    <t>【分析】此题考查汉语拼音、音序、汉字结构、偏旁部首、笔画笔顺等方面的知识。因此，应全面扎实地掌握各方面的知识，同时在运用知识时，注意把握其不同的特点和要求。   A． 阁：的部首：门    B．凸、5、T、凸  D．久的部首：丿故答案为：C【点评】本题考查学生查字典的能力。对不认识的字用部首查字法，对不会写的字用音序查字法。</t>
+  </si>
+  <si>
+    <t>下列句子中，运用了反问的修辞手法的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、你喜欢看电影吗？</t>
+  </si>
+  <si>
+    <t>B、小姐，你可以陪我去兜兜风吗？</t>
+  </si>
+  <si>
+    <t>C、既然如此，您为何对我这样冷淡？</t>
+  </si>
+  <si>
+    <t>D、人与人之间不应该是这样吗？</t>
+  </si>
+  <si>
+    <t>修辞手法</t>
+  </si>
+  <si>
+    <t>【分析】反问句：是用反诘的语气表达一个肯定的意思，答案已经蕴涵在问句中了，不需要对方来回答。ABC都是一般疑问句，D是反问句，意思是：人与人之间不应该是这样。  【点评】考查学生对反问修辞手法的掌握。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下列句子中，意思不同于其他选项的是（    ）</t>
+  </si>
+  <si>
+    <t>A、他的讲座吸引了不少有识之士。</t>
+  </si>
+  <si>
+    <t>B、不少有识之士的讲座吸引了他。</t>
+  </si>
+  <si>
+    <t>C、不少有识之士被他的讲座吸引了。</t>
+  </si>
+  <si>
+    <t>D、他的讲座把不少有识之士吸引了。</t>
+  </si>
+  <si>
+    <t>【分析】“A．C．D”是陈述句与被字句、把字句之间的转换，意思相同，都是“他的讲座吸引了不少有识之士。”而B．是“不少有识之士的讲座吸引了他。”  故答案为B【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>下列汉字全是前鼻音的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、宾   滨   鬓   兵   濒</t>
+  </si>
+  <si>
+    <t>B、臣   辰   尘   陈   趁</t>
+  </si>
+  <si>
+    <t>C、贫   拼   品   平   嫔</t>
+  </si>
+  <si>
+    <t>D、根   更   跟   艮   亘</t>
+  </si>
+  <si>
+    <t>【分析】前鼻音：指拼音中以“n”结尾的韵母，如：an ian uan üan en in uen ün。后鼻音：指拼音中以“ng”结尾的韵母，如：ang iang uang eng ing ueng ong iong  先读准字音再加一分辨：A．宾（bīn）   滨（bīn）   鬓（bìn）   兵（bīng）   濒（bīn）      B．臣（chén）   辰（chén）   尘（chén）   陈（chén）   趁（chèn）C．贫（pín）   拼（pīn）   品（pǐn）   平（píng）   嫔（pín）      D．根（gēn）   更（gèng）   跟（gēn）   艮（gèn）   亘（gèn）故答案为：B【点评】此题主要考查对前韵母、后云母的区分和掌握。</t>
+  </si>
+  <si>
+    <t>下列汉字全是动词的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、拿  碰  推  凭  毛</t>
+  </si>
+  <si>
+    <t>B、出  捏  好  拍  唱</t>
+  </si>
+  <si>
+    <t>C、自  吹  闭  吸  拉</t>
+  </si>
+  <si>
+    <t>D、走  跳  飞  游  想</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是先理解动词，动词时表示人或动物动作的词。A．“拿  碰  推”（动词）  凭（介）  毛（名）      B．“出  捏  拍  唱”（动）  好（形）  C．自（介）  “吹  闭  吸  拉”（动）      D．“走  跳  飞  游  想”（动）故答案为：D【点评】此题主要考查对词形的掌握能力。</t>
+  </si>
+  <si>
+    <t>与“窃窃私语”词义相近的是（    ）</t>
+  </si>
+  <si>
+    <t>A、小心翼翼</t>
+  </si>
+  <si>
+    <t>B、细声细语</t>
+  </si>
+  <si>
+    <t>C、欢声雷动</t>
+  </si>
+  <si>
+    <t>D、唉声叹气</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对近义词的辨析情况，先理解词义再写近义词。窃窃私语：背地里小声说话。与“细声细语”意思相近。  故答案为：B【点评】主要测试学生对近义词的理解，理解了词义，写出近义词就容易了。平时注意多积累，增加词汇量。</t>
+  </si>
+  <si>
+    <t>下列词语没有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、专心致志     狂风爆雨     坐无虚席</t>
+  </si>
+  <si>
+    <t>B、供堂大笑     美不胜收     肃然起静</t>
+  </si>
+  <si>
+    <t>C、轻于鸿毛     精兵简政     憧憬未来</t>
+  </si>
+  <si>
+    <t>D、哆哆索索     叽叽查查     浩浩荡荡</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。   A． 爆——暴、坐——座B．供——哄、静——敬D．索索——嗦嗦、查查——喳喳故答案为：C【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下列描写除夕的诗句是（    ）</t>
+  </si>
+  <si>
+    <t>A、清明时节雨纷纷，路上行人欲断魂。</t>
+  </si>
+  <si>
+    <t>B、千门万户瞳瞳日，总把新桃换旧符。</t>
+  </si>
+  <si>
+    <t>C、至今不会天中事，应是嫦娥掷与人。</t>
+  </si>
+  <si>
+    <t>D、银烛秋光冷画屏，轻罗小扇扑流萤。</t>
+  </si>
+  <si>
+    <t>诗文朗读、默写、翻译</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是理解诗意，在此基础上加以判断。A．清明时节雨纷纷，路上行人欲断魂。意思是：清明节这天细雨纷纷,路上远行的人好像断魂一样迷乱凄凉。B．千门万户瞳瞳日，总把新桃换旧符。意思是：春风送暖，旭日初升，家家户户点燃爆竹，合家喝着屠苏酒，忙着摘下门上的旧桃符，换上贴有门神的新桃符。C．至今不会天中事，应是嫦娥掷与人。意思是： 到现在,我还不知道天上到底发生了什么事,想来想去,这些桂花和雨露,应该是广寒宫里的嫦娥抛掷下来送给我们的吧?D．银烛秋光冷画屏，轻罗小扇扑流萤。意思是：在一个秋天的晚上,白色的蜡烛发出微弱的光,给屏风上的图画添了几分暗淡而幽冷的色调.这时,一个孤单的宫女正用小扇扑打着飞来飞去的萤火虫。故答案为：B【点评】此题主要考查对诗句的理解能力。</t>
+  </si>
+  <si>
+    <t>下列标点符号运用正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、于是——洗手的时候，日子从水盆里过去；吃饭的时候，日子从饭碗里过去；默默时，便从凝然的双眼前过去。</t>
+  </si>
+  <si>
+    <t>B、篱内种植着各种花木果树，可谓树满寨，花满园。</t>
+  </si>
+  <si>
+    <t>C、人民文学杂志要发表这个报告，由我把记录稿作了整理，送给总理审阅。</t>
+  </si>
+  <si>
+    <t>D、肉店里有山鹬啊，鹧鸪啊，野兔啊，可是那些东西哪儿打来的，店里的伙计不肯说。</t>
+  </si>
+  <si>
+    <t>【分析】此题主要考查学生对标点符号的掌握及运用。要了解标点符号的基本用法，重点掌握每一种标点符号的特殊用法，能正确使用标点符号。B．篱内种植着各种花木果树  ， （。）可谓树满寨，花满园。C．人民文学（《人民文学》）杂志要发表这个报告，由我把记录稿作了整理，送给总理审阅。D．肉店里有山鹬啊，鹧鸪啊，野兔啊  ， （……）可是那些东西哪儿打来的，店里的伙计不肯说。【点评】对于标点符号的考查有选择题、加标点题、修改题。所以平时的学习中，我们要用心体会标点符号的用法，书写过程中也要做到尽可能正确的使用标点符号，另外对于一些标点符号的特殊用法要加以积累。还要注意标点符号的位置。</t>
+  </si>
+  <si>
+    <t>下列解释不正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、为是其智弗若与？（因为）</t>
+  </si>
+  <si>
+    <t>B、及其日中如探汤。（菜汤）c．正月初一的光景与除夕截然不同。（风光景物）D．这一次不知道为什么，父亲竟然这样含糊地回答我。（不明确，不明晰）</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解词义。B．及其日中如探汤。（汤：热水）；B、C、D正确。故答案为：B【点评】本题考查学生结合词语境理解词义的能力。</t>
+  </si>
+  <si>
+    <t>下列句子中加划线的词语运用正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、台上，顶碗少年呆呆地站着，脸上全是汗珠，他有些目不转睛了。</t>
+  </si>
+  <si>
+    <t>B、就这样，一文不值的唐东杰布在雅鲁藏布江上留下了58座铁索桥。</t>
+  </si>
+  <si>
+    <t>C、三发绿色的信号弹升上天空，接着就是震天动地的炸药包爆炸声。</t>
+  </si>
+  <si>
+    <t>D、法官和他的几个朋友逗他连绵不断地讲了起来，有的人还用嘲弄的口吻问他是否还想再去那个山洞走一趟。</t>
+  </si>
+  <si>
+    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．A项“目不转睛”眼球一动不动地盯着看。形容注意力高度集中。与对应的语境不符。B项“一文不值”指毫无价值。与对应的语境不符。C项“震天动地”震动了天地。形容声音或声势极大。与对应的语境相符。D项“连绵不断”形容连续不止，从不中断。与对应的语境不符。故答案为：C【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
+  </si>
+  <si>
+    <t>《两小儿辩日》这则故事说明的道理是（    ）</t>
+  </si>
+  <si>
+    <t>A、世界是复杂的，有许多现象人们是无法解释的</t>
+  </si>
+  <si>
+    <t>B、孔子的知识也是非常有限的</t>
+  </si>
+  <si>
+    <t>C、宇宙无限，知识无穷，再博学的人也会有所不知，学习是无止境的</t>
+  </si>
+  <si>
+    <t>课文内容理解；两小儿辩日</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。《两小儿辩日》这则故事说明的道理是宇宙无限，知识无穷，再博学的人也会有所不知，学习是无止境的。  故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>诗歌中常常借物咏志，如在《竹石》《石灰吟》中，看起来写的是物，实际上是在抒发他们做人的一种志向，这种志向是（    ）</t>
+  </si>
+  <si>
+    <t>A、为了大义视死如归的志向</t>
+  </si>
+  <si>
+    <t>B、做一个高尚正直的人的志向</t>
+  </si>
+  <si>
+    <t>C、做一个勇于献身的人的志向</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。《竹石》《石灰吟》中，看起来写的是物，实际上是在抒发他们做人的一种志向，这种志向是做一个高尚正直的人的志向。  故答案为：B【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>下列词语中四种声调都有的词语是（    ）</t>
+  </si>
+  <si>
+    <t>A、百年大计</t>
+  </si>
+  <si>
+    <t>B、百思不解</t>
+  </si>
+  <si>
+    <t>C、百读不厌</t>
+  </si>
+  <si>
+    <t>D、百舸争流</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是读准字音，再比较声调。  A．百年大计bǎi nián dà jì    B．百思不解bǎi sī bù jiě    C．百读不厌bǎi dú bù yànD．百舸争流bǎi gě zhēng liú    E．百花争艳bǎi huā zhēng yàn    F．百炼成钢bǎi liàn chéng gāng故答案为：F【点评】正确读准字音，注意区别形近字的读音，还要注意声调的区别，平时要多读，多练。</t>
+  </si>
+  <si>
+    <t>下列词语中，不全是儿化韵的一组（    ）</t>
+  </si>
+  <si>
+    <t>A、枝条儿   少点儿   小孩儿   山歌儿</t>
+  </si>
+  <si>
+    <t>B、宝贝儿   门缝儿   图钉儿   儿女</t>
+  </si>
+  <si>
+    <t>C、伙伴儿   小鸟儿   壶盖儿   针尖儿</t>
+  </si>
+  <si>
+    <t>【分析】儿化音指那个“儿”字没有字面意思，不影响语义。可以通过把这个“儿”字加上或去掉，看看词语的意思是否变化与否来判断。儿化韵的词更加口语化。情感色彩比较重。“儿”去掉后比较正式。B“儿女”不是儿化音。  故答案为：B【点评】此题主要考查对儿化韵的词拼读的掌握及运用。</t>
+  </si>
+  <si>
+    <t>划线字的音节完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、磅（páng）礴    赔偿（chǎng）    山峦（luán）     拈（zhān）轻怕重</t>
+  </si>
+  <si>
+    <t>B、麻（bì）是      澎湃（pài）      匿（nì）名       皮开肉绽（zhàn）</t>
+  </si>
+  <si>
+    <t>C、琵琶（pa）      徘（pái）徊      骤（zhòu）然     臭（xiù）味相投</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。  A项    拈（zhān改为niān）轻怕重C项    臭（xiù改为chòu ）味相投故答案为：B【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
+  </si>
+  <si>
+    <t>下列汉字中韵母相同的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、津圣腾崇睁</t>
+  </si>
+  <si>
+    <t>B、焰怨倦湾寒</t>
+  </si>
+  <si>
+    <t>C、们伶奋吞恨</t>
+  </si>
+  <si>
+    <t>D、刑伶凝凭鼎</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是读准字音，再比较韵母。   A． 津jīn圣shèng腾téng崇chóng睁zhēng.B．焰yàn怨yuàn倦juàn湾wāàn寒hán.C．们men伶líng奋fèn吞tūn恨hèn.D．刑xíng伶líng凝níng凭píng鼎dǐng.故答案为：D【点评】正确读准字音，注意区别形近字的读音，还要注意韵母的区别，平时要多读，多练。</t>
+  </si>
+  <si>
+    <t>下列字母按字母表排列正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、A  Z  H  T  Q</t>
+  </si>
+  <si>
+    <t>B、A  T  Q  H   Z</t>
+  </si>
+  <si>
+    <t>C、A  H  Q  T  Z</t>
+  </si>
+  <si>
+    <t>D、A  Q  T  Z  H</t>
+  </si>
+  <si>
+    <t>【分析】字母表的排列顺序为：A  B  C  D  E  F  G  H  I  J  K  L  M  N  O  P  Q  R  S  T  U  V  W  X  Y  Z.  故答案为：C【点评】此题主要考查按音序查排列字母的能力。</t>
+  </si>
+  <si>
+    <t>划线字字音或字形完全正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、纤细（xiān）     训服     敌寇（kòu）      良晨美景</t>
+  </si>
+  <si>
+    <t>B、呜咽（yè）       焦燥     春蕾（léi）      以史为鉴</t>
+  </si>
+  <si>
+    <t>C、肆虐（nüè）      分辨     派遣             随声附和（hè）</t>
+  </si>
+  <si>
+    <t>D、负荷（hé）       澳洲     旋风（xuàn）     揠旗息鼓</t>
+  </si>
+  <si>
+    <t>拼音；字形</t>
+  </si>
+  <si>
+    <t>【分析】字形、字音题的考查只要求识记字形、字音而不要求拼写,即侧重于考查识记、辨别、确定汉字、字音的能力,准确地判断其正确与否。A晨—辰    B燥—躁     春蕾（léi改lěi）  D负荷（hé改hè ）、揠—偃。故答案为：C【点评】这道题目考查学生对汉字字音字形的掌握情况，是语文学习中最基础的知识。学生在平时的学习中要多读、多记、多写，才能够准确无误书写出来。</t>
+  </si>
+  <si>
+    <t>表示精炼著名的话叫（    ）</t>
+  </si>
+  <si>
+    <t>A、格言</t>
+  </si>
+  <si>
+    <t>B、誓言</t>
+  </si>
+  <si>
+    <t>C、吉言</t>
+  </si>
+  <si>
+    <t>D、忠言</t>
+  </si>
+  <si>
+    <t>【分析】A格言：精炼著名或含有教育意义可为准则的字句。B誓言：就是一种承诺，一种负责任。C吉言：有利的、幸福的话。D忠言：带有劝诫性质的直率之言。【点评】此题主要考查对词语的理解能力。</t>
+  </si>
+  <si>
+    <t>依次填入横线中最恰当的词语是（    ）①同学们都_______着早日与这位著名的作家见面。②有的队员用声波探测仪仔细地_______着每一条缝隙。③爸爸已经_______工作了12个小时，真辛苦。</t>
+  </si>
+  <si>
+    <t>A、盼望  搜寻  连续</t>
+  </si>
+  <si>
+    <t>B、希望  搜寻  陆续</t>
+  </si>
+  <si>
+    <t>C、盼望  搜索  连续</t>
+  </si>
+  <si>
+    <t>【分析】选词填空中的备选词语大多数都是同义词或近义词，通过分析、比较，会发现它们之间会有细微差别。因此，选择时我们必须结合词语所在的语言环境，体会词语的区别，认真选择恰当的词语。盼望：殷切地期望。如①。希望：心里想着达到某种目的或出现某种情况。搜索：是在已知条件下进行的,强调结果。如②。搜寻：是对未知的探寻,强调过程。 连续：一次过完成的。如③。陆续：一个一个地。 故答案为：C【点评】说话和写作时要正确使用词语，注意词语的搭配和组合；正确理解词语在具体语言环境中的意义；注意词语使用过程中的感情色彩的变化；加强对教材注释和课文后列出的字词背诵积累等</t>
+  </si>
+  <si>
+    <t>下面句子中哪句不是比喻句（    ）</t>
+  </si>
+  <si>
+    <t>A、翠鸟蹬开苇秆，像箭一样飞过去。</t>
+  </si>
+  <si>
+    <t>B、燕子在车厢里唧唧喳喳，仿佛在向人类致谢。</t>
+  </si>
+  <si>
+    <t>C、我们村子前面的小山包，远远看上去仿佛就是一个绿色的大绒团。</t>
+  </si>
+  <si>
+    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A句是比喻(明喻)的修辞手法，把翠鸟的飞行(本体)比作箭一样飞(喻体)。B句不是比喻的修辞手法，没有喻体。C句是比喻(明喻)的修辞手法，把小山包(本体)比作绿色的大绒团(喻体)。 故答案为：B。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下面说法正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、“得失、呼吸、详细、始终”这四个词语都是反义词组成的。</t>
+  </si>
+  <si>
+    <t>B、古诗《咏柳》的作者是贺知章，《乞巧》的作者是李商隐。</t>
+  </si>
+  <si>
+    <t>C、《画杨桃》一课中父亲的话与老师的话是那么的相似，他们的教诲使作者一生受用。</t>
+  </si>
+  <si>
+    <t>词义；课文内容理解；文化常识</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾有关内容，比较判断正误。A“详细”是近义词组成的。B《乞巧》的作者是林杰。故答案为：C【点评】此题考查学生对词语的辨析、文化常识及课文内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>下面不属于神话故事的是（    ）</t>
+  </si>
+  <si>
+    <t>A、《女娲补天》</t>
+  </si>
+  <si>
+    <t>B、《夸父追日》</t>
+  </si>
+  <si>
+    <t>C、《画龙点睛》</t>
+  </si>
+  <si>
+    <t>D、《盘古开天地》</t>
+  </si>
+  <si>
+    <t>【分析】神话故事是民间文学的一种。远古时代人民的集体口头创作。包括神鬼的故事和神(鬼)化的英雄传说。其产生表现了古代人民对自然力的斗争和对理想的追求，它是一种精神寄托、人类的向往和宗教的实化展现，对后世的文学艺术有深远的影响。A《女娲补天》：讲述的是远古时候的造人之神——女娲为了拯救水深火热之中的人们，冒着生命危险补天的故事。赞扬了女娲勇敢、善良的品质及不怕危险、甘于于奉献的精神。B《夸父追日》：讲述的是巨人夸父敢于与太阳竞跑，最后口渴而死，他的手杖化为桃林。这个奇妙的神话表现了夸父无比的英雄气概，反映了古代人民探索、征服大自然的强烈愿望和顽强意志。C《画龙点睛》讲述的是梁朝著名画家张僧在金陵的安乐寺的墙壁上画四条龙，却没有画上眼睛。游人们觉得很奇怪，认为应该画上眼睛，就坚持让张僧繇画上龙的眼睛。张僧繇无奈，只好给其中一条龙画上了眼睛。只见他在眼白上轻轻一点，顿时电闪雷鸣，被点上眼睛的那一条龙飞上了天！……等天气便会原样后，人们发现被点上眼睛的那两条龙果然不见了！人们惊叹不已。寓意：画龙点睛是说，只要抓住了问题的关键，就能解决问题。D《盘古开天地》是中国古代传说时期中开天辟地的神。在天地还没有开辟以前，宇宙就像是一个大鸡蛋一样混沌一团。有个叫做盘古的巨人在这个“大鸡蛋”中一直酣睡了约18000年后醒来，盘古凭借着自己的神力把天地开辟出来了。他的左眼变成了太阳，右眼变成了月亮;头发和胡须变成了夜空的星星;他的身体变成了东、西、南、北四极和雄伟的三山五岳;血液变成了江河;牙齿、骨骼和骨髓变成了地下矿藏;皮肤和汗毛变成了大地上的草木;汗水变成了雨露。 盘古的精灵魂魄也在他死后变成了人类。所以，都说人类是世上的万物之灵。故答案为：C【点评】此题主要考查对神话故事的把握能力。</t>
+  </si>
+  <si>
+    <t>A、灌溉   唾沫   专心志致</t>
+  </si>
+  <si>
+    <t>B、欧洲   烦脑   脚踏实地</t>
+  </si>
+  <si>
+    <t>C、水罐   预防   业精于勤</t>
+  </si>
+  <si>
+    <t>D、冶练   掩盖   群芳吐艳</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“专心志致”改为“专心致志”      B“ 烦脑”改为“烦恼”。D“ 冶练”改为“冶炼 ”。故答案为：C【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下面划线字读音完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、濒（píｎ）临     羊圈（ｊｕàｎ）</t>
+  </si>
+  <si>
+    <t>B、弓弦（xiáｎ）     稚拙（ｚｈ  ｕō）</t>
+  </si>
+  <si>
+    <t>C、霎（chà）时     石缝（ｆèｎｇ）</t>
+  </si>
+  <si>
+    <t>D、降（xiánｇ）落   便（ｐｉáｎ）宜</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A项   濒（píｎ改bīn）临C项   霎（chà改shà）时D项   降（xiánｇ改jiàｎｇ）落故答案为：B【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
+  </si>
+  <si>
+    <t>“清”对“浊”，“勤”对“懒”，正如“旭日东升”对（    ）</t>
+  </si>
+  <si>
+    <t>A、皓月当空</t>
+  </si>
+  <si>
+    <t>B、夕阳西下</t>
+  </si>
+  <si>
+    <t>C、晴空万里</t>
+  </si>
+  <si>
+    <t>D、月朗星稀</t>
+  </si>
+  <si>
+    <t>对联</t>
+  </si>
+  <si>
+    <t>【分析】对联，中国的传统文化之一，又称楹联或对子，是写在纸、布上或刻在竹子、木头、柱子上的对偶语句。对联对仗工整，平仄协调，是一字一音的中华语言独特的艺术形式。故答案为：B【点评】此题考查学生对对联的理解能力。做题时要根据对联的特点进行选择。</t>
+  </si>
+  <si>
+    <t>“比喻受过惊吓后，遇到一点儿情况就害怕得不得了”的成语是（    ）</t>
+  </si>
+  <si>
+    <t>A、买椟还珠</t>
+  </si>
+  <si>
+    <t>B、画龙点睛</t>
+  </si>
+  <si>
+    <t>C、南辕北辙</t>
+  </si>
+  <si>
+    <t>D、惊弓之鸟</t>
+  </si>
+  <si>
+    <t>成语</t>
+  </si>
+  <si>
+    <t>【分析】买椟还珠：原意是买来装珍珠的木匣退还了珍珠。比喻没有眼力，取舍不当。画龙点睛：原形容梁代画家张僧繇作画的神妙。后多比喻写文章或讲话时，在关键处用几句话点明实质，使内容更加生动有力。南辕北辙：意思是心想往南而车子却向北行。比喻行动和目的相抵触。故答案为：D【点评】本题主要考查对成语的积累。成语：是我国汉字语言词汇中一部分定型的词组或短句。成语有固定的结构形式和固定的说法，表示一定的意义，在语句中是作为一个整体来应用的。成语有很大一部分是从古代相承沿用下来的，在用词方面往往不同于现代汉语。它代表了一个故事或者典故。大家平时要多积累。做题时根据所给出成语的的意思进行选择即可。</t>
+  </si>
+  <si>
+    <t>下列词语书写全部正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、废寝忘食      息息相关      惟妙惟肖      历历在目</t>
+  </si>
+  <si>
+    <t>B、专心致志      孜孜不倦      聚精会神      面面具到</t>
+  </si>
+  <si>
+    <t>C、姹紫嫣红      业经于勤      郁郁匆匆      异口同声</t>
+  </si>
+  <si>
+    <t>【分析】Ｂ项中”面面具到“中的”具“应该是”俱“。Ｃ项中”  业经于勤 “中的”经“应该是”精“。” 郁郁匆匆 “中的”匆匆“应该是”葱葱“。故答案为：Ａ【点评】本题主要考查纠正错别字的能力。错别字是错字和别字的总称。写错别字一般有如下几种情况：（1）增减笔画；（2）变换偏旁，改变字的部件；（3）因字音相同而写错别字；（4）因字形相近而写错别字。做题时可以从汉字的音，行、义三方面入手。读准字音，辨明字形，弄清字义。结合词义理解字形是最好的方法。</t>
+  </si>
+  <si>
+    <t>下列划线字注音完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、冶（zhì）炼          挣（zhēng）扎            估（ɡū）计</t>
+  </si>
+  <si>
+    <t>B、羊圈（juàn）         嫉（jí）妒               半晌（shǎng）</t>
+  </si>
+  <si>
+    <t>C、教诲（huǐ）          女娲（wā）               濒（bīn）临</t>
+  </si>
+  <si>
+    <t>【分析】Ａ项中”冶（zhì）炼 “应该是”冶（yě）炼 “。Ｃ项中”教诲（huǐ）  “应该是”教诲（huì）“。故答案为：Ｂ【点评】本题主要考查对拼音的辨析能力。要做到准确识记字音，还要掌握一些多音多义字的读音，尤其是一些经常读错的字音。如：”冶（zhì）炼 “应该是”冶（yě）炼 “。</t>
+  </si>
+  <si>
+    <t>下面哪句话说法不正确？（    ）</t>
+  </si>
+  <si>
+    <t>A、“太阳离我们有1.5亿公里远。”这句话的说明方法是“列数字”。</t>
+  </si>
+  <si>
+    <t>B、“太阳会发光，会发热，是个大火球。”这句话的说明方法是“打比方”。</t>
+  </si>
+  <si>
+    <t>C、“他托着下巴，仿佛在思考什么问题。”这句话是比喻句。</t>
+  </si>
+  <si>
+    <t>D、“少壮不努力，老大徒伤悲。”这句话告诉我们要珍惜时间。</t>
+  </si>
+  <si>
+    <t>【分析】A句从"1.5亿公里远",可以看出运用了打比方的说明方法。B句中把“太阳”比作“大火球”，运用了打比方的说明方法。C句虽然有本体和喻词，但是没有喻体。​D句告诉我们要珍惜时间。故答案为：C【点评】本题主要考查常见的修辞方法。比喻：即表示两种不同程度的事物，彼此之间有相似点，使用一事物来比方另一事物的修辞方法。注意有“像”并不一定就是比喻句。</t>
+  </si>
+  <si>
+    <t>与“这么重要的事，你怎么可以忘记？”意思一样的句子是（    ）</t>
+  </si>
+  <si>
+    <t>A、这么重要的事，你可以忘记。</t>
+  </si>
+  <si>
+    <t>B、这么不重要的事，你可以忘记。</t>
+  </si>
+  <si>
+    <t>C、这么重要的事，你不可以忘记。</t>
+  </si>
+  <si>
+    <t>D、这么不重要的事，你不可以忘记。</t>
+  </si>
+  <si>
+    <t>句式转换</t>
+  </si>
+  <si>
+    <t>【分析】所给出的句子是肯定的反问句，意思是“这么重要的事，你不可以忘记。”故答案为：C【点评】本题主要考查变换句式的能力。反问句改陈述句方法：①将反问句中的肯定词改为否定词，或将否定词改为肯定词。②将反问句中的反问语气词（怎、怎么、难道等）去掉。③将句末的疑问助词（呢、吗等）去掉，问号改为句号。</t>
+  </si>
+  <si>
+    <t>“时间紧迫，容不得你犹豫。”句中的“迫”该选哪种意思？（    ）</t>
+  </si>
+  <si>
+    <t>A、逼、威胁</t>
+  </si>
+  <si>
+    <t>B、接近</t>
+  </si>
+  <si>
+    <t>C、急</t>
+  </si>
+  <si>
+    <t>D、靠近</t>
+  </si>
+  <si>
+    <t>【分析】本题考查对字义的理解。紧迫：形容事物的紧急迫切状态。结合句子可知这里是指时间“紧急”。​故答案为：Ｃ【点评】本题主要考查对字词的理解能力。解答本题，需要结合词语去分析汉字在词语中的意思，然后结合具体语境选择正确的解释即可。</t>
+  </si>
+  <si>
+    <t>下面的词语中有错别字的是（    ）</t>
+  </si>
+  <si>
+    <t>A、样式</t>
+  </si>
+  <si>
+    <t>B、专心致志</t>
+  </si>
+  <si>
+    <t>C、曲普</t>
+  </si>
+  <si>
+    <t>D、入迷</t>
+  </si>
+  <si>
+    <t>【分析】“曲普”的”普“应该是”谱“。故答案为：C。【点评】本题主要考查纠正错别字的能力。错别字是错字和别字的总称。写错别字一般有如下几种情况：①增减笔画；②变换偏旁，改变字的部件；③因字音相同而写错别字；④因字形相近而写错别字。做题时可以从汉字的音，行、义三方面入手。读准字音，辨明字形，弄清字义。结合词义理解字形是最好的方法。</t>
+  </si>
+  <si>
+    <t>下面划线的多音字读音错误的是（    ）</t>
+  </si>
+  <si>
+    <t>A、便（pián）宜</t>
+  </si>
+  <si>
+    <t>B、投降（xiáng）</t>
+  </si>
+  <si>
+    <t>C、教（jiāo）书</t>
+  </si>
+  <si>
+    <t>D、羊圈（quān）</t>
+  </si>
+  <si>
+    <t>【分析】羊圈（quān）的”圈（quān）“读音是”juàn“。故答案为：D【点评】本题主要考查对多音字的辨别能力。多音字，就是一个字有两个或两个以上的读音，不同的读音表义不同，用法不同，词性也往往不同。做题要根据词义辨别读音。如：圈 [quān]；环形，环形的东西：圆～。花～。～套。画～。圈 [juàn]；养家畜的棚栏：～舍（shè ㄕㄜˋ）。～养。～牢（饲养家畜的地方）。猪～。姓。圈 [juān]；关闭：把鸡～起来。他已被～在监狱里。</t>
+  </si>
+  <si>
+    <t>下列词语中书写完全正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、非州    告诉    附近    叮嘱</t>
+  </si>
+  <si>
+    <t>B、忽然    停留    游览    状观</t>
+  </si>
+  <si>
+    <t>C、新奇    陈烈    吹拂    等候</t>
+  </si>
+  <si>
+    <t>D、瀑布    衣襟    即将    超重</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。A州——洲B状——壮C烈 ——陈列【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>火眼金睛：划线字读音完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、屋脊（jī）      宫阙（què）    吮吸（yǔn）    鏖战（áo）</t>
+  </si>
+  <si>
+    <t>B、锃亮（zènɡ）    眸子（mǔ）     河畔（pán）    瞭望（liáo）</t>
+  </si>
+  <si>
+    <t>C、吓煞（shà）     蜷曲（quán）   鸟瞰（kàn）    鸟喙（huì）</t>
+  </si>
+  <si>
+    <t>D、惬意（qiè）     松散（sàn）    炽热（zhì）    憧憬（chōnɡ）</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A屋脊（jī改为jǐ）、吮吸（yǔn改shǔn）B眸子（mǔ改móu）、河畔（pán改pàn）、瞭望（liáo改liào）D炽热（zhì改chì）、 松散（sàn改sǎn）故答案为：C【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
+  </si>
+  <si>
+    <t>用关联词语_______联结“明天下雨。中队活动照常进行。”这两句话最恰当。（    ）</t>
+  </si>
+  <si>
+    <t>A、虽然……但是……</t>
+  </si>
+  <si>
+    <t>B、无论……都……</t>
+  </si>
+  <si>
+    <t>C、即使……也……</t>
+  </si>
+  <si>
+    <t>【分析】考查关联词的运用。解答时要先理解分句前后表示的是何种关系，再根据句子的意思来选择恰当的关联词语填写。【分析】考查关联词的运用。解答时要先理解关联词表示的是何种关系，再根据句子的意思来填写。两个分句之间是转折关系。故选“即使……也……”故答案为：C【点评】本题考查学生对关联词语的使用。理解句子，分清分句前后之间的关系。然后再来选择恰当的关联词语，使句子连贯。</t>
+  </si>
+  <si>
+    <t>《林冲棒打洪教头》是根据名著_______里有关回目改编的。（    ）</t>
+  </si>
+  <si>
+    <t>A、《三国演义》</t>
+  </si>
+  <si>
+    <t>B、《儒林外史》</t>
+  </si>
+  <si>
+    <t>C、《水浒传》</t>
+  </si>
+  <si>
+    <t>【分析】本题考查对《水浒传》内容、人物、故事情节的识记能力。答题时要回忆学过的《水浒》的文章，结合题目所给的条件和提示作出正确的回答。做好此类题，平时要认真上好每一节课，有意识地积累教材中的名家名篇。《林冲棒打洪教头》选自我国四大名著之一《水浒传》第九章回。讲述的是林冲被押解到沧州路过柴进庄上巧遇洪教头。故答案为：C【点评】对于“课标”推荐的必读名著，平时要认真阅读，识记文学常识，掌握主要内容，故事情节，主要人物等。</t>
+  </si>
+  <si>
+    <t>关于“羌笛何须怨杨柳，春风不度玉门关”这句诗，下列表达较为恰当的是（    ）</t>
+  </si>
+  <si>
+    <t>A、借物言志</t>
+  </si>
+  <si>
+    <t>B、表达了思念之情</t>
+  </si>
+  <si>
+    <t>C、描写春景</t>
+  </si>
+  <si>
+    <t>【分析】诗人王之涣原本是太原人.太原较之玉门关在地理上以及气候环境上有很很大差异,是一个自然风光秀丽壮美的地方.春天的时候自然是春暖花开,春风和煦的美景.发配到玉门关的诗人王之涣自然不习惯玉门关春天的恶劣环境,加上诗人对自身仕途的不满以及怀念家人的惆怅情绪,自然就写出了春风不度玉门关的诗句,其实是家乡的春风吹不到玉门关而已.所以“羌笛何须怨杨柳，春风不度玉门关”这句诗表达了思念之情。【点评】本题考查鉴赏作者思想感情的能力。解答本题，①应根据对整首诗歌内容的感知与理解，②诗歌的写作背景。①作者的生平经历。结合着具体诗句分析作答。</t>
+  </si>
+  <si>
+    <t>下列每组词语中，没有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、兴国安帮  理屈词穷</t>
+  </si>
+  <si>
+    <t>B、置之不理  优盛劣汰</t>
+  </si>
+  <si>
+    <t>C、富丽堂皇  盛气凌人</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A、帮—邦 B、盛—胜。故答案为：C【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下列每组词语中，读音全部正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、勉强（mián  qiǎng）      缺少（qiē    shǎo）</t>
+  </si>
+  <si>
+    <t>B、号召（hào    zhào）      惩罚（chéng   fá）</t>
+  </si>
+  <si>
+    <t>C、申请（shēng  qǐng）      应该（yīng    gāi）</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A、勉强（mián改miǎn）、缺少（qiē改quē）C、申请（shēng改shēn）故答案为：B【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
+  </si>
+  <si>
+    <t>在“喜出望外”一词中，“望”的意思是（    ）</t>
+  </si>
+  <si>
+    <t>A、希图，盼</t>
+  </si>
+  <si>
+    <t>B、看</t>
+  </si>
+  <si>
+    <t>C、名望，声誉</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。喜出望外：由于没有想到的好事而非常高兴。望:希图，盼。故答案为：A【点评】本题考查学生对词语的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>下面诗句中，哪句是描写春天景色的？（    ）</t>
+  </si>
+  <si>
+    <t>A、忽如一夜春风来，千树万树梨花开。</t>
+  </si>
+  <si>
+    <t>B、两个黄鹂鸣翠柳，一行白鹭上青天。</t>
+  </si>
+  <si>
+    <t>C、月落乌啼霜满天，江枫渔火对愁眠。</t>
+  </si>
+  <si>
+    <t>D、停车坐爱枫林晚，霜叶红于二月花。</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查赏析诗句的能力。对于诗歌鉴赏，首先是要掌握一定的鉴赏知识、专业术语，如表达技巧：象征、烘托、寓情于事、托物言志等等，然后才能准确把握鉴赏。赏析该句首先要解释一下该句的意思，写出了什么内容，表现了什么思想感情等，才能知道诗句描写的季节。如北风卷地白草折，胡天八月即飞雪。 忽如一夜春风来，千树万树梨花开。诗句描写的是雪景，当然是描写冬天的景色。从诗句：“月落乌啼霜满天，江枫渔火对愁眠。”中的“霜满天”等字眼可知道诗句描写是秋天。而从诗句“两个黄鹂鸣翠柳，一行白鹭上青天。”中“翠柳”可知诗句描写是春天。故答案为：B。​【点评】要知道诗句描写的是什么季节，可以通过关键词语或诗句的意思上去判断。</t>
+  </si>
+  <si>
+    <t>如果你的同学学习不认真，总想着玩乐，你会真诚地劝诫（jiè）他：“_____________________”。（    ）</t>
+  </si>
+  <si>
+    <t>A、长江后浪推前浪，世上今人胜古人</t>
+  </si>
+  <si>
+    <t>B、若使年华虚多过，到老空留后悔心</t>
+  </si>
+  <si>
+    <t>C、三百六十行，行行出状元</t>
+  </si>
+  <si>
+    <t>D、冰生于水而寒于水，青出于蓝而胜于蓝</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查句子理解及运用能力。先理解每句话的意思，再结合语言环境选出恰当句子填空。长江后浪推前浪，世上今人胜古人：长江后浪推着前浪前进，世界上今人在智慧才能上胜过古人，意味着一代更比一代强；若使年华虚多过，到老空留后悔心：意思就是我们不能虚度光阴,一定要抓紧时间好好学习,这样到老财不会追悔莫及；三百六十行，行行出状元：意思就是各行各业，都会有优秀的人才；冰生于水而寒于水，青出于蓝而胜于蓝：冰,是水凝固而成的,却比水还要寒冷.后来“青出于蓝”用作成语指学生通过刻苦努力,知识和学问超过老师。根据这几句话意思只有“若使年华虚多过，到老空留后悔心”适合劝诫只想玩，不想学习的人。故答案为：B。【点评】对于句子理解及运用的题，先理解每句话的意思，再结合语言环境选出恰当句子填空。</t>
+  </si>
+  <si>
+    <t>台湾的翠玉白菜是由_______雕成的。（    ）</t>
+  </si>
+  <si>
+    <t>A、能工巧匠</t>
+  </si>
+  <si>
+    <t>B、巧夺天工</t>
+  </si>
+  <si>
+    <t>C、美轮美奂</t>
+  </si>
+  <si>
+    <t>D、流光溢彩</t>
+  </si>
+  <si>
+    <t>词义；成语</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对成语的理解和运用能力。先理解每个成语的意思，再结合具体的语言环境，分析用哪个成语填空使句子表达合理，形象，具体得体等既是用哪个词填空恰当。能工巧匠：指工艺技术高明的人；巧夺天工夺：胜过。人工的精巧胜过天然。形容技艺十分巧妙；美轮美奂：轮：高大；奂：众多。形容房屋高大华丽；流光溢彩：流光溢彩的意思是光像在流动，色彩像要溢出来，一般用在形容车灯、霓虹等。故答案为：A。【点评】对于成语的理解和运用的题目。先理解每个成语的意思，再结合具体的语言环境，分析用哪个成语填空使句子表达合理，形象，具体得体等既是用哪个词填空恰当。</t>
+  </si>
+  <si>
+    <t>节日期间，超市里的商品降价促销！大门才打开，顾客们便_______。（    ）</t>
+  </si>
+  <si>
+    <t>A、倾巢而出</t>
+  </si>
+  <si>
+    <t>B、鱼贯而出</t>
+  </si>
+  <si>
+    <t>C、鸡飞狗跳</t>
+  </si>
+  <si>
+    <t>D、群龙无首</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对成语的理解和运用能力。首先理解成语的意思，再结合语境选用成语填空。倾巢而出：倾：倒出；巢：巢穴。 比喻敌人出动全部兵力进行侵扰；鱼贯而出：像游鱼那样连贯着出现；鸡飞狗跳：把鸡吓得飞起来，把狗吓得到处乱跳。 形容惊慌得乱成一团；群龙无首：一群龙没有领头的。 比喻没有领头的，无法统一行动。根据“节日期间，超市里的商品降价促销！”前提购物的人一定很多，当超市的大门一打开，想一想顾客进入超市的情景，就知道用“鱼贯而出”填空恰当。故答案为：B。【点评】本题主要考查对成语的理解和运用能力。首先理解成语的意思，再结合语境选用成语填空。</t>
+  </si>
+  <si>
+    <t>南沙群岛中的岛屿、礁盘_______，就像在海上撒下了一串串晶莹的珍珠。（    ）</t>
+  </si>
+  <si>
+    <t>A、水天相接</t>
+  </si>
+  <si>
+    <t>B、星罗棋布</t>
+  </si>
+  <si>
+    <t>C、井井有条</t>
+  </si>
+  <si>
+    <t>D、连绵起伏</t>
+  </si>
+  <si>
+    <t>【分析】本题考查的是对词语意思的掌握，解答本题首先理解给出的词语的解释，在理解的基础上，根据自己的词语积累写出与意思对应的词语。星罗棋布意思：罗：罗列；布：分布。像天空的星星和棋盘上的棋子那样分布着。形容数量很多，分布很广。只有这个成语符合所给语境。故答案为：B。【点评】解答本题首先理解给出的词语的解释，在理解的基础上，根据自己的词语积累写出与意思对应的词语。星罗棋布意思：罗：罗列；布：分布。像天空的星星和棋盘上的棋子那样分布着。形容数量很多，分布很广。只有这个成语符合所给语境</t>
+  </si>
+  <si>
+    <t>缸里的几条金鱼非常_______。（    ）</t>
+  </si>
+  <si>
+    <t>A、可爱</t>
+  </si>
+  <si>
+    <t>B、热爱</t>
+  </si>
+  <si>
+    <t>C、心爱</t>
+  </si>
+  <si>
+    <t>D、喜爱</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对词语的理解和运用能力。首先理解词语的意思，再结合语境选用词语进行填空。可爱：①天真无邪②令人喜爱。③形容心灵单纯的意思。④ 单纯有点幼稚却富有爱心；热爱：形容爱的程度很深；心爱：怀有情人般的感情、忠诚和柔情2.视为宝贝或作宝贝看待；喜爱：指对某人或事物有好感或者产生兴趣。在用于修饰小金鱼的词语用“可爱”最恰当。故答案为：A。【点评】本题主要考查对词语的理解和运用能力。首先理解词语的意思，再结合语境选用词语进行填空。</t>
+  </si>
+  <si>
+    <t>我的邻居王奶奶是个特别_______的人。（    ）</t>
+  </si>
+  <si>
+    <t>A、留心</t>
+  </si>
+  <si>
+    <t>B、专心</t>
+  </si>
+  <si>
+    <t>C、耐心</t>
+  </si>
+  <si>
+    <t>D、热心</t>
+  </si>
+  <si>
+    <t>【分析】本题考查的是对词语的辨析能力。做题时要从词义，词性，词的感情色彩和使用范围等方面进行分析，再结合具体语境进行选择。留心：小心;注意；专心：用心专一，一心不二；耐心：有耐性;不厌烦；热心：热心肠，热忱;干什么就爱什么。知道每个词语意思，结合句子“我的邻居王奶奶是个特别_______的人。”填“热心”恰当。故答案为：D。​【点评】本题考查的是对词语的辨析能力。做题时要从词义，词性，词的感情色彩和使用范围等方面进行分析，再结合具体语境进行选择。</t>
+  </si>
+  <si>
+    <t>下列划线的字的读音全对的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、耗（hào）尽      证（zèng）实      御（yù）寒</t>
+  </si>
+  <si>
+    <t>B、欢畅（chàng）    例（liè）如        惠（huì）山</t>
+  </si>
+  <si>
+    <t>C、拱（gǒng）形     宏（hóng）伟      抛（pāo）给</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A项   证（zèng改zhèng）实。B项    例（liè改lì）如。故答案为：C【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
+  </si>
+  <si>
+    <t>下列划线字意思相同的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、东张西望     张灯结彩     张冠李戴     大张旗鼓</t>
+  </si>
+  <si>
+    <t>B、变化多端     品行端正     端饭上菜     东西两端</t>
+  </si>
+  <si>
+    <t>C、异口同声     独在异乡     变化奇异     父母离异</t>
+  </si>
+  <si>
+    <t>D、鉴往知来     自我鉴定     鉴别真伪     字画鉴赏</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。A东张西望（看）     张灯结彩（陈设、铺排）     张冠李戴 （姓）    大张旗鼓（展开，铺排）B变化多端（方面、项）     品行端正（正）     端饭上菜（手平举拿物）     东西两端（事物的一头）C异口同声（不同）     独在异乡（外地）     变化奇异 （特别的 ,与众不同的 ）    父母离异（分开）D“鉴往知来、自我鉴定、鉴别真伪、字画鉴赏”都是审察或引为教训。故答案为：D。【点评】本题考查学生对字的理解。可结合语境、课后注释或查字典理解字义。</t>
+  </si>
+  <si>
+    <t>下列句子中词语填写正确的一组是（    ）①我只不过替他______了几句，说明了事情的真相。②在会议上，几个调皮的孩子都为自己犯的错误进行了______。③双方的合同，写得明明白白，我实在不愿再______了。</t>
+  </si>
+  <si>
+    <t>A、辩护    辩白    辩解</t>
+  </si>
+  <si>
+    <t>B、辩解    辩护    辩护</t>
+  </si>
+  <si>
+    <t>C、辩白    辩护    辩解</t>
+  </si>
+  <si>
+    <t>D、辩白    辩解    辩护</t>
+  </si>
+  <si>
+    <t>【分析】本题考查的是对词语的辨析能力。做题时要从词义，词性，词的感情色彩和使用范围等方面进行分析，再结合具体语境进行选择。“辩白”着重于“白”，说明白事实，一般指在被误会或被指责的情况下进行分辩，使真相大白。“辩护”着重于“护”，用充足的理由为自己或他人申辩，如律师出庭辩护，为自己辩护等。“辩解”着重于“解”，分辩解释，说明见解或言行是正确的或错误不是那么严重。根据句子的语意，分别填入：①辩白；②辩解；③辩护。故答案为：D。【点评】做题时要从词义，词性，词的感情色彩和使用范围等方面进行分析，再结合具体语境进行选择。</t>
+  </si>
+  <si>
+    <t>和例句使用修辞方法相同的是（    ）例：一切都像刚睡醒的样子，欣欣然张开了眼。</t>
+  </si>
+  <si>
+    <t>A、天空撒满快活地眨着眼的星星。</t>
+  </si>
+  <si>
+    <t>B、蓝色的天空飘着浮云，像一块块红绸布。</t>
+  </si>
+  <si>
+    <t>C、阅读室里安静得连针掉到地上的声音都听得见。</t>
+  </si>
+  <si>
+    <t>D、红色象征着胜利，象征着光明，象征着希望。</t>
+  </si>
+  <si>
+    <t>【分析】例句：“一切都像刚睡醒的样子，欣欣然张开了眼。”是个拟人句。A、天空撒满快活地眨着眼的星星。是拟人句；B、蓝色的天空飘着浮云，像一块块红绸布。是比喻句；C、阅读室里安静得连针掉到地上的声音都听得见。是夸张句；D、红色象征着胜利，象征着光明，象征着希望。是排比句。故答案为：A。【点评】做修辞手法方面的题，首先了解每种修辞手法的定义及特点，然后结合句子进行分析其所用的修辞手法。本题先分析出例句所用的修辞手法。再从选择项中选出和例句用修辞手法一样的句子。</t>
+  </si>
+  <si>
+    <t>下面的诗句中依次填入的花名是（    ）①兴尽晚回舟，误入______深处。②西塞山前白鹭飞，______流水鳜鱼肥。③忽如一夜春风来，千树万树______开。④梅子金黄杏子肥，______雪白菜花稀。</t>
+  </si>
+  <si>
+    <t>A、藕花    梨花    桃花    菜花</t>
+  </si>
+  <si>
+    <t>B、藕花    桃花    梨花    麦花</t>
+  </si>
+  <si>
+    <t>C、藕花    桃花    麦花    梨花</t>
+  </si>
+  <si>
+    <t>D、菜花    麦花    梨花    藕花</t>
+  </si>
+  <si>
+    <t>【分析】本题考查对名句名篇的补充默写能力，属于直接型默写，结合上下句的提示默写即可。做这类题关键是会背默对应的古诗。①《如梦令·常记溪亭日暮》：兴尽晚回舟，误入藕花深处。②《渔歌子》：西塞山前白鹭飞，桃花流水鳜鱼肥。③《白雪歌送武判官归京》：忽如一夜春风来，千树万树梨花开。④《四时田园杂兴·其二》：梅子金黄杏子肥，麦花雪白菜花稀。故答案为：B。【点评】本题考查对名句名篇的补充默写能力，属于直接型默写，结合上下句的提示默写即可。做这类题关键是会背默对应的古诗。</t>
+  </si>
+  <si>
+    <t>“疾恶如仇”的“疾”的正确意思应该是（    ）“疾”在字典中的注释有：</t>
+  </si>
+  <si>
+    <t>A、恨</t>
+  </si>
+  <si>
+    <t>B、病</t>
+  </si>
+  <si>
+    <t>C、快，迅速</t>
+  </si>
+  <si>
+    <t>D、疼痛</t>
+  </si>
+  <si>
+    <t>字义；词义</t>
+  </si>
+  <si>
+    <t>【分析】本题中“疾”是个多义字。意思有：恨；病；快，迅速；疼痛等。具体是哪个意思，要结合语境。本题要结合词语“疾恶如仇”意思去分析“疾”的意思。疾恶如仇：指对坏人坏事如同对仇敌一样憎恨。所以本题中的“疾”是“恨”。故答案为：A。【点评】本题主要考查对词语的理解能力。多义词是指一字有两个及以上的意思，要依据具体语境选择合适的词义。</t>
+  </si>
+  <si>
+    <t>没有语病的一句是（    ）</t>
+  </si>
+  <si>
+    <t>A、通过这次集邮活动，使我增长了不少见识。</t>
+  </si>
+  <si>
+    <t>B、下雨了，五颜六色的花伞成了一道亮丽的风景。</t>
+  </si>
+  <si>
+    <t>C、红安化肥厂把源源不断的化肥运往全国各地。</t>
+  </si>
+  <si>
+    <t>D、我们班通过并讨论了这份计划书。</t>
+  </si>
+  <si>
+    <t>修改病句</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查修改病句的能力。A、“通过这次集邮活动，使我增长了不少见识。”这个句子缺少主语，应把“通过”去掉。B、“下雨了，五颜六色的花伞成了一道亮丽的风景。”句子中的“五颜六色”与“花”重复。应该去掉一个。D、“我们班通过并讨论了这份计划书”句子中的“通过并讨论”语序不当，应该改为“讨论并通过”。故答案为：C。​【点评】修改病句，首先要认真阅读原句，在了解原句的意思之后，再逐项查找病因，找准了病因，分析产生错误的原因，继而找到解决的办法，准确修改。要注意读题一定要仔细，不能疏漏；修改句子一定不能改变句子原意，且要做最小幅度的修改</t>
+  </si>
+  <si>
+    <t>下列不是《西游记》中的故事是（    ）</t>
+  </si>
+  <si>
+    <t>A、三大白骨精</t>
+  </si>
+  <si>
+    <t>B、三借芭蕉扇</t>
+  </si>
+  <si>
+    <t>C、大闹天空</t>
+  </si>
+  <si>
+    <t>D、三进大观园</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对《西游记》与《红楼梦》中的主要故事的掌握情况。《西游记》中的主要故事有：趣经女儿国； 众仙戏八戒；四探无底洞；三打白骨精；大闹天宫；真假孙行者；高老庄娶亲；三借芭蕉扇；大战青牛精等。D项，三进大观园是《红楼梦》中的故事。故答案为：D。【点评】平时我们应阅读一些名著，像《西游记》，《红楼梦》，《三国演义》，《水浒传》等。</t>
+  </si>
+  <si>
+    <t>下列词语不是同一类的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、牛奶  饼干  巧克力  花生</t>
+  </si>
+  <si>
+    <t>B、圆规  钢笔  铅笔盒  橡皮</t>
+  </si>
+  <si>
+    <t>C、橘树  枣树  松树    树木</t>
+  </si>
+  <si>
+    <t>D、帽子  衬衫  皮靴    围巾</t>
+  </si>
+  <si>
+    <t>【分析】本题考查的是词语分类的能力。词语的分类就是根据学过的词语所表示的事物的性质、特点、用途、关系等方面的不同，把它们分类。A 牛奶  饼干  巧克力  花生这几个词语都是表示食品；B 圆规  钢笔  铅笔盒  橡皮都属于了表示文具类的名称；C 橘树  枣树  松树是具体树木名称。而树木是一个统称。D 帽子  衬衫  皮靴    围巾都属于衣服类名称。故答案为：C。【点评】词语的分类就是根据学过的词语所表示的事物的性质、特点、用途、关系等方面的不同，去分析去判断。</t>
+  </si>
+  <si>
+    <t>下列句子中标点符号有错的一句是（    ）</t>
+  </si>
+  <si>
+    <t>A、弟子们埋头向前走。看看这一株，摇了摇头；看看那一株，又摇了摇头。</t>
+  </si>
+  <si>
+    <t>B、广袤的大地是她宽广的胸怀，茂密的森林是她飘逸的长发，温暖的太阳是她明亮的眸子，和煦的轻风是她甜蜜的絮语……</t>
+  </si>
+  <si>
+    <t>C、蝙蝠的耳朵又怎么能“穿透”黑夜，“听”到没有声音的物体呢？</t>
+  </si>
+  <si>
+    <t>D、我得到了一个启示：对于外界的压力，可以通过正面抗争去战胜它，但有时也需要像雪松那样先弯曲一下，做出适当的让步，以求反弹的机会。</t>
+  </si>
+  <si>
+    <t>【分析】此题主要考查学生对标点符号的掌握及运用。常用的点号有顿号、逗号、分号、句号、问号、冒号、叹号；常用的标号有引号、省略号、破折号、书名号、括号等。要了解标点符号的基本用法，重点掌握每一种标点符号的特殊用法，能正确使用标点符号。D项，句中冒号（：）改破折号（——），起解释的作用。故答案为：D。【点评】对于标点符号的考查有选择题、加标点题、修改题。所以平时的学习中，我们要用心体会标点符号的用法，书写过程中也要做到尽可能正确的使用标点符号，另外对于一些标点符号的特殊用法要加以积累。还要注意标点符号的位置。</t>
+  </si>
+  <si>
+    <t>下列句子排列错乱，正确的顺序应该是（    ）①而人类又靠吃动植物生长。②植物靠阳光、水分和大气阿红的氧、二氧化碳生长。③对地球来说，太阳十分重要。④由此可见，地球上的生命是不能缺少太阳的。⑤动物靠吃植物生长。</t>
+  </si>
+  <si>
+    <t>A、①③②⑤④</t>
+  </si>
+  <si>
+    <t>B、④②①⑤③</t>
+  </si>
+  <si>
+    <t>C、③②⑤①④</t>
+  </si>
+  <si>
+    <t>D、②①③⑤④</t>
+  </si>
+  <si>
+    <t>句子排序、仿写</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查排列句子的能力。排列句子：把排列错乱的句子整理成一段通顺连贯的话，能训练对句子的理解能力、有条理表达能力和构段能力。解答此类首先要读懂句子的意思，仔细地读，根据其意知道这段内容是按什么顺序写的。一般的顺序有：时间先后顺序；空间转换顺序；事情发展顺序；总分顺序：先总后分或先分后总等。仔细地寻找句子中相关的词语来确定顺序。故答案为：C。【点评】排列句子：把排列错乱的句子整理成一段通顺连贯的话，能训练对句子的理解能力、有条理表达能力和构段能力。解答此类首先要读懂句子的意思，仔细地读，根据其意知道这段内容是按什么顺序写的。一般的顺序有：时间先后顺序；空间转换顺序；事情发展顺序；总分顺序：先总后分或先分后总等。仔细地寻找句子中相关的词语来确定顺序。</t>
+  </si>
+  <si>
+    <t>下列词语搭配完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、提高认识    价钱便宜    生活简朴    保卫公物</t>
+  </si>
+  <si>
+    <t>B、反映情况    远大理想    义务演出    改正错误</t>
+  </si>
+  <si>
+    <t>C、发现问题    身体强大    发扬风格    灌溉稻田</t>
+  </si>
+  <si>
+    <t>D、改善生活    天空明朗    安排工作    工作认真</t>
+  </si>
+  <si>
+    <t>【分析】词语搭配就是前一个词语和后一个词语搭配得当，能将意思表达得更好，更准确。A“保卫公物”不搭，改为“爱护公物”；C“身体强大” 不搭，改为“身体强健；D“天空明朗”不搭，改为“天空晴朗”；故答案为：B【点评】本题主要考查学生对词语的搭配的能力，在于平时的词语积累和对课文的掌握。这些词语都是课文中的，只要对课文内容熟练掌握，做起来就不难。</t>
+  </si>
+  <si>
+    <t>下列词语中划线字读音全部正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、矿藏（cáng）      躲藏（cáng）      藏（zàng）族     宝藏（zàng）</t>
+  </si>
+  <si>
+    <t>B、石凳（dèn）       臀（tēn）部       吆喝（hè）       悄（qiǎo）无声息</t>
+  </si>
+  <si>
+    <t>C、揣摩（mó）        聆（lín）听       焚（fén）烧      威胁（xié）</t>
+  </si>
+  <si>
+    <t>D、连翘（qiáo）花    翘（qiào）尾巴    翘（qiáo）首     翘（qiào）望</t>
+  </si>
+  <si>
+    <t>拼音；字形；词形</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对词语中字的拼读能力。解答此题，要求学生首先要读准词语，然后根据汉字选择音节全部正确的一组即可。臀部：读“tún bù”所以B组错误；聆听：读“líng tīng”所以C组错误；翘望：读“qiáo wàng”所以D组错误。故答案为：A。【点评】解答此题，要求学生首先要读准词语，然后根据汉字选择音节全部正确的一组即可。</t>
+  </si>
+  <si>
+    <t>没有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、专心至志    奋不顾身    没精打采    提心吊胆</t>
+  </si>
+  <si>
+    <t>B、爱不释手    克不容缓    迫不及待    毫不松驰</t>
+  </si>
+  <si>
+    <t>C、川流不息    神采奕奕    实事求是    焕然一新</t>
+  </si>
+  <si>
+    <t>D、永往直前    诲人不倦    负荆请罪    漫不经心</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A 专心至志，应改为：专心致志；B 克不容缓，应改为：刻不容缓；D 永往直前，应改为：勇往直前。故答案为：C【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>划线字读音不完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、凌晨（línɡ）      弹琴（tán）      音乐（yuè）      衣冠（ɡuān）</t>
+  </si>
+  <si>
+    <t>B、挪移（nuó）       蒸融（rónɡ）     幽雅（yōu）      锻炼（duàn）</t>
+  </si>
+  <si>
+    <t>C、枯萎（wěi）       渺小（miǎo）     窈窕（tiáo）     鸟喙（zhuō）</t>
+  </si>
+  <si>
+    <t>D、蘸药末（zhàn）    秽物（huì）     养尊处优（chǔ）   薄弱（bó）</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对字词的拼读能力。解答此题，要求学生首先要读准词语，然后根据汉字选择完全正确的音节项即可。C项，鸟喙的拼音是：niǎo hu，错误；故答案为：C【点评】解答此题，要求学生首先要读准词语，然后根据汉字选择完全正确的音节项即可。</t>
+  </si>
+  <si>
+    <t>义务教育阶段的语文课程应培育学生热爱祖国语文的思想感情，指导学生正确地理解和运用祖国语文，丰富语言的积累，培养语感，发展思维，使他们具有适应实际需要的识字写字能力、阅读能力、写作能力、口语交际能力。（    ）</t>
+  </si>
+  <si>
+    <t>A、拼音认读能力</t>
+  </si>
+  <si>
+    <t>B、识字写字能力</t>
+  </si>
+  <si>
+    <t>C、汉字认读能力</t>
+  </si>
+  <si>
+    <t>D、汉字书写能力</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查对“义务教育阶段的语文课程应培育学生热爱祖国语文的思想感情，指导学生正确地理解和运用祖国语文，丰富语言的积累，培养语感，发展思维，使他们具有适应实际需要的识字写字能力、阅读能力、写作能力、口语交际能力。”这句话理解。从这部分;“使他们具有适应实际需要的识字写字能力、阅读能力、写作能力、口语交际能力”我们可了解它包含了识字，写字等能力；故答案为：B</t>
+  </si>
+  <si>
+    <t>下列选项恰当的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、“返璞归真、亭亭玉立、形色匆匆”这三个词中有两个错别字。</t>
+  </si>
+  <si>
+    <t>B、刚劲、狂风怒号、含情脉脉、埋怨，划线的字都是多音字。</t>
+  </si>
+  <si>
+    <t>C、“饱经风霜”与“饱览群书”中的“饱”字意思不一样。</t>
+  </si>
+  <si>
+    <t>D、“张灯结彩、目瞪口呆、姹紫嫣红、怒目圆睁”都是含有近义词的成语。</t>
+  </si>
+  <si>
+    <t>拼音；字形；字义</t>
+  </si>
+  <si>
+    <t>【分析】A项，“返璞归真、亭亭玉立、形色匆匆”这三个词中，只有一个错别字。形色匆匆，应改为：行色匆匆。该项说法错误。B项，加下划线的字都是多音字，正确。C项，饱经风霜”与“饱览群书”中的 “饱”字的含义基本相同， 都是“充分、充足、足够”的意思。该项说法错误。D项，“怒目圆睁”不是含有近义词的成语。该项说法错误。故答案为：B。【点评】本题考查综合知识的判断，试题难度较大，注意平时多看、多记。</t>
+  </si>
+  <si>
+    <t>下列文学文化常识表述有误的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、《诗经》是我国第一部诗歌总集，按其内容分为“风”“雅”“颂”三大类，共收入诗歌三百零五篇。《诗经》最初称《诗》，汉代儒者奉为经典，乃称《诗经》。</t>
+  </si>
+  <si>
+    <t>B、古人常用某些词语作为年纪的别称或解释，如“垂”指童年，“弱冠”指青少年，“束发”指二十岁，“不惑”指三十岁，“而立”指四十岁，“黄发”指老年。</t>
+  </si>
+  <si>
+    <t>C、英国伟大的剧作家莎士比亚写有多部以意大利为背景的作品，如《罗密欧与朱丽叶》《威尼斯商人》等。</t>
+  </si>
+  <si>
+    <t>D、列夫·托尔斯泰是十九世纪俄国伟大的批判现实主义作家，他的创作曾被列宁誉为“俄国革命的镜子”。</t>
+  </si>
+  <si>
+    <t>【分析】文学常识的信息点有：作者名（字、号）、称谓、生活时代、作品名、体裁、书中人物、主要情节、作品主题及风格、流派等，阅读作品时要注意记忆，根据考试的要求作出相应的解答。B垂髫(tiao)是三四岁至八九岁的儿童(髫，古代儿童头上下垂的短发)；15岁（男）――束发(男子到了十五岁，要把原先的总角解散，扎成一束)；20岁――弱冠。(古代男子二十岁行冠礼，表示已经成人，因为还没达到壮年，故称“弱冠”)； 30岁（男）――而立之年； 40岁（男）――不惑之年、强壮之年； 50岁――年逾半百、知非之年、知命之年、艾服之年、大衍之年； 60岁――花甲、平头甲子、耳顺之年、杖乡之年； 70岁――古稀、杖国之年、致事之年、致政之年；【点评】主要考查学生对文化常识的掌握，要求学生平时多记多积累。</t>
+  </si>
+  <si>
+    <t>下列文字常识、文化、知识表达有误的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、“令”是一种敬辞，我们在向别人介绍自己的父母时，可用“令尊”“令堂”这样的称呼。</t>
+  </si>
+  <si>
+    <t>B、唐宋八大家是指韩愈、柳宗元、苏洵、苏轼、苏辙、欧阳修、王安石、曾巩。</t>
+  </si>
+  <si>
+    <t>C、《水浒传》中的武松是一位豪侠之士，景阳冈打虎是“勇”的表现。</t>
+  </si>
+  <si>
+    <t>D、我国古代把农历每年初-叫做“朔”，十五叫做“望”，月末一天叫“晦”。</t>
+  </si>
+  <si>
+    <t>【分析】A选项中“令”是一种敬辞，用于对方的亲属或有关系的人，不能用于自己。谦辞“家”是有来称比自己辈分高或年长的活着的亲人，含有谦恭平常之意。所以我们在向别人介绍自己的父母时，可用“家严”和“家慈”这样的称呼。故答案为：A。【点评】本题考查对文学文化常识的掌握情况。</t>
+  </si>
+  <si>
+    <t>下列的诗句描写中秋节的是（    ）</t>
+  </si>
+  <si>
+    <t>A、去年元夜时，花市灯如昼。</t>
+  </si>
+  <si>
+    <t>B、春城无处不飞花，寒食东风御柳斜</t>
+  </si>
+  <si>
+    <t>C、家家乞巧望秋月，望尽红丝儿万条</t>
+  </si>
+  <si>
+    <t>D、至今不会天中事，应是嫦娥掷与人</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是理解诗句的意思。A去年元夜时，花市灯如昼。写的是元宵节。B春城无处不飞花，寒食东风御柳斜。写的是寒食节。C家家乞巧望秋月，望尽红丝儿万条。写的是七夕节。D至今不会天中事，应是嫦娥掷与人。写的是中秋节。故答案为：D。【点评】此题主要考查对诗句的理解能力。</t>
+  </si>
+  <si>
+    <t>下列各组没有错别字的一项是（    ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A、啜泣    隐秘     物竞天择     因地治宜 </t>
+  </si>
+  <si>
+    <t>B、狼籍     阔绰    头晕目眩    捉襟见肘</t>
+  </si>
+  <si>
+    <t>C、悲呛    枯洞     契而不舍     好高鹜远</t>
+  </si>
+  <si>
+    <t>D、闪烁     魅力    义愤填膺    相形见绌</t>
+  </si>
+  <si>
+    <t>词形</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A项，治—制B项，籍—藉C项，呛—怆、契—锲。故答案为：D。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下面划线字读音完全正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、伫立（zhù）     腼腆（diǎn）    怒目嗔视（chěn）</t>
+  </si>
+  <si>
+    <t>B、鞭笞（tà）      栖居（qì）      相得益彰（zhāng）</t>
+  </si>
+  <si>
+    <t>C、皎洁（jiǎo）    蜿蜒（yán）     三缄其口（jiān）</t>
+  </si>
+  <si>
+    <t>D、禀告（bǐn）     朔风（su）      绮丽风光（yǐ）</t>
+  </si>
+  <si>
+    <t>【分析】字音题的考查只要求识记不要求拼写,即侧重于考查识记、辨别、确定字音的能力,准确地判断其正确与否。识记现代汉语普通话常用字的字音,侧重的是“常用字的字音”。考查主要涉及同音字、形声字、形近字、多音字、习惯性误读字、方言字、统读字、难读字等。多音字、习惯性误读字是考试的重点、形声字、形近字次之。多音字、难读字是“认读”的难点。复习时应分类整理记忆，以记忆为主，把记忆和训练结合起来。本题中：A 腼腆（diǎn改为tiǎn）、怒目嗔视（chěn改chēn）B 鞭笞（tà改为chī）、栖居（qì改为qī）D禀告（bǐn改为bǐng）、 朔风（su改为shuò）、绮丽风光（yǐ改为qǐ）。 故答案为：C。【点评】这道题目考查学生对汉字字音字形的掌握情况，是语文学习中最基础的知识。学生在平时的学习中要多读、多记、多写，才能够准确无误书写出来。</t>
+  </si>
+  <si>
+    <t>下列文学常识、文化知识表达正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、“横眉冷对千夫指，俯首甘为孺子牛”是巴金的。</t>
+  </si>
+  <si>
+    <t>B、及时雨宋江、豹子头林冲、智多星吴用等演绎了三顾茅庐、火烧赤壁等历史上有名的故事。</t>
+  </si>
+  <si>
+    <t>C、美国作家笛福的《鲁滨孙漂流记》和英国作家马克吐温的《百万英镑》，是外国文学中的经典作品。</t>
+  </si>
+  <si>
+    <t>D、汉子从仓颉造字起，大致经历了甲骨文、金文、小篆、隶书、楷书、草书、行书等演变过程。</t>
+  </si>
+  <si>
+    <t>【分析】A是鲁迅的名言；B三顾茅庐、火烧赤壁是《三国演义》的故事；C英国笛福、美国作家马克吐温；故答案为：D。【点评】主要考查学生对文化常识的掌握，要求学生平时多记多积累。</t>
+  </si>
+  <si>
+    <t>下列各组词语没有错别字的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、姹紫嫣红  鞠躬尽瘁  不容争辨</t>
+  </si>
+  <si>
+    <t>B、饥肠辘辘  留连忘返  长途跋涉</t>
+  </si>
+  <si>
+    <t>C、漫不经心  抑扬顿挫  应接不瑕</t>
+  </si>
+  <si>
+    <t>D、张冠李戴  放诞无礼  奄奄一息</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A、辨—辩；B留—流；C瑕—暇故答案为：D【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下列注音完全正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、江畔（bàn）       剔（tì）透         祈（qī）祷         飘拂（fú）</t>
+  </si>
+  <si>
+    <t>B、机械（jiè）       粗犷（kuàng）      眯缝（fèng）       肩胛（jiá）</t>
+  </si>
+  <si>
+    <t>C、倭（wō）瓜        暂（zàn）时        阻挠（náo）        拘束（shù）</t>
+  </si>
+  <si>
+    <t>D、饶（rào）有趣味   目瞪（dēng）口呆   艰苦卓（zhuō）绝   毫不犹豫（yù）</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A、江畔（pàn）；剔（tī）透；祈（qí）祷；B、机械（xiè）；粗犷（guǎng）；肩胛（jiǎ）；D、目瞪（dèng）口呆；艰苦卓（zhuó）绝；故答案为：C【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
+  </si>
+  <si>
+    <t>把下列句子排列成一段意思连贯的话，正确的顺序是（    ）①在班上，作文和写字算是我的“强项”了，然而就是在这两门课上，我也受过申斥。②有一次作文，题目是“记秋游”。③我不明白这批语的含义，就去问。④在文章的开头，我说：“星期天的早晨，我和几个同学在西街外的草场上玩，忽然闻到一阵桂花香。”⑤陈先生看后在末尾批了“嗅觉特长”四个字。</t>
+  </si>
+  <si>
+    <t>A、②③④⑤①</t>
+  </si>
+  <si>
+    <t>B、①②④⑤③</t>
+  </si>
+  <si>
+    <t>C、④③②⑤①</t>
+  </si>
+  <si>
+    <t>D、①③④②⑤</t>
+  </si>
+  <si>
+    <t>【分析】连贯类题目做题时要注意把握基本内容，初步分层归类，先在小范围内排序，然后再考虑层次间的衔接，其中应先找出相关联词、代词以及表时间、地点的词语，然后据此进行句间连缀排列。在上面排列的基础之上，再诵读语段，检查确定。细读不难发现恰当的排序为：①②④⑤③。故答案为：B【点评】该题考查对句子进行排序的能力，此外还考查学生对语段的整体把握能力、逻辑思维能力和语言组织能力。</t>
+  </si>
+  <si>
+    <t>王老师_______50多岁了，_______精力仍然很旺盛。（    ）</t>
+  </si>
+  <si>
+    <t>B、因为……所以……</t>
+  </si>
+  <si>
+    <t>D、只有……才……</t>
+  </si>
+  <si>
+    <t>【分析】考查关联词的运用。解答时要先理解分句前后表示的是何种关系，再根据句子的意思来选择恰当的关联词语填写。此句分句前后是转折关系。故填“虽然……但是……”；故答案为：A。【点评】本题考查学生对关联词语的使用。理解句子，分清分句前后之间的关系。然后再来选择恰当的关联词语，使句子连贯</t>
+  </si>
+  <si>
+    <t>朗读下列句子，正确的停顿是（    ）</t>
+  </si>
+  <si>
+    <t>A、春天像／刚落地的娃娃，从头／到脚都是新的，它生长着。</t>
+  </si>
+  <si>
+    <t>B、春天像刚／落地的娃娃，从头到脚／都是新的，它生长着。</t>
+  </si>
+  <si>
+    <t>C、春天像刚落地／的娃娃，从头到脚都是／新的，它生长着。</t>
+  </si>
+  <si>
+    <t>D、春天／像刚落地的娃娃，从头到脚／都是新的，它生长着。</t>
+  </si>
+  <si>
+    <t>【分析】解答本题的关键在于读懂句子，理解句意，以意义划分节奏，正确划分节奏应为：春天／像刚落地的娃娃，从头到脚／都是新的，它生长着。故答案为：D【点评】本题考查句子的朗读停顿。划分句子的朗读停顿一般坚持结构与意思原则即可。</t>
+  </si>
+  <si>
+    <t>标点符号用得正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、年轻的妈妈嘴轻轻地动着，好像在对孩子们说些什么？</t>
+  </si>
+  <si>
+    <t>B、我看着许多亲友挥着帽子，挥着手，说着：“再见，再见！”</t>
+  </si>
+  <si>
+    <t>C、王平是一个关心集体；乐于助人的好学生。</t>
+  </si>
+  <si>
+    <t>D、菜同里种着白菜、茄子、冬瓜——等十几种蔬菜。</t>
+  </si>
+  <si>
+    <t>【分析】A、此句为陈述句，“？”改“。”  C、“关心集体；乐于助人”是并列关系，“；”改“、” D、“冬瓜”后应是“……”故答案为：B【点评】对于标点符号的考查有选择题、加标点题、修改题。所以平时的学习中，我们要用心体会标点符号的用法，书写过程中也要做到尽可能正确的使用标点符号，另外对于一些标点符号的特殊用法要加以积累。还要注意标点符号的位置。</t>
+  </si>
+  <si>
+    <t>下列没有语病的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、这次数学考试，全班同学普遍成绩提高了。</t>
+  </si>
+  <si>
+    <t>B、小刚的肩头被沉重的担子压得喘不过气来。</t>
+  </si>
+  <si>
+    <t>C、经过医生的精心治疗，爷爷很快恢复了健康。</t>
+  </si>
+  <si>
+    <t>D、尽管天气很冷，亮亮每天早晨就锻炼身体。</t>
+  </si>
+  <si>
+    <t>【分析】A词序颠倒，普遍和成绩倒过来。B搭配不当，把“的肩头”去掉。D用词不当，“尽管”换成“无论”。故答案为：C。【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
+  </si>
+  <si>
+    <t>下列词语中没有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、斩钉截铁    秉烛夜游    张冠李戴    三年五栽</t>
+  </si>
+  <si>
+    <t>B、技叶繁茂    恍然大悟    万籁俱寂    失声痛哭</t>
+  </si>
+  <si>
+    <t>C、战无不胜    置之不理    坚持不懈    争先恐后</t>
+  </si>
+  <si>
+    <t>D、拨苗助长    赞叹不已    盛气陵人    兴国安帮</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A三年五栽，应改为：三年五载；B技叶繁茂，应改为：枝叶繁茂；D拨苗助长，应改为：拨苗助长；盛气陵人，应改为：盛气凌人；兴国安帮，应改为：兴国安邦。故答案为：C【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下列汉字笔画数完全相同的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、幽  癸  哥  陋</t>
+  </si>
+  <si>
+    <t>B、农  矛  脊  凯</t>
+  </si>
+  <si>
+    <t>C、隶  冽  虏  氓</t>
+  </si>
+  <si>
+    <t>D、卵  盲  莽  肺</t>
+  </si>
+  <si>
+    <t>【分析】A、幽（9）  癸（9）  哥 （10） 陋（8）B、农（6）  矛（5）  脊（10）  凯（8）C、隶（8）  冽（8）  虏（8）  氓（8）D、卵（7）  盲（8）  莽（10）  肺（8）。故答案为：C【点评】汉字笔画数的判定，属识字的基本知识技能，在于平时的练习和识记。</t>
+  </si>
+  <si>
+    <t>下列词语全部要读成翘舌音的是（    ）</t>
+  </si>
+  <si>
+    <t>A、杂志  支持  书桌  促进</t>
+  </si>
+  <si>
+    <t>B、战场  政治  挣扎  整数</t>
+  </si>
+  <si>
+    <t>C、四十  私事  宿舍  驻扎</t>
+  </si>
+  <si>
+    <t>D、十四  散失  真正  层次</t>
+  </si>
+  <si>
+    <t>【分析】A、杂志（z/zh）、支持（zh/ch）、书桌（sh/zh）、促进（c/j）B、战场（zh/ch）、 政治（zh/zh）、挣扎（zh/zh）、整数（zh/sh）C、四十（s/sh）、私事（s/sh）、宿舍（s/sh）、驻扎（zh/zh）D、十四（sh/s）、散失（s/sh）、真正（zh/zh）、层次（c/c）。故答案为：B。【点评】掌握平舌音和翘舌音作声母的字，平时注意多练。</t>
+  </si>
+  <si>
+    <t>《夏洛的网》《狼王梦》《绿山墙的安妮》《青铜葵花》的作者分别是（    ）①沈石溪    ②曹文轩    ③E·B·怀特    ④露西·蒙哥玛丽</t>
+  </si>
+  <si>
+    <t>A、①③④②</t>
+  </si>
+  <si>
+    <t>B、③④①②</t>
+  </si>
+  <si>
+    <t>C、④①③②</t>
+  </si>
+  <si>
+    <t>D、③①④②</t>
+  </si>
+  <si>
+    <t>【分析】文学常识的信息点有：作者名（字、号）、称谓、生活时代、作品名、体裁、书中人物、主要情节、作品主题及风格、流派等，阅读作品时要注意记忆，根据考试的要求作出相应的解答。《夏洛的网》的作者是：美国人，E·B·怀特。《狼王梦》的作者是：“动物小说大王”沈石溪《绿山墙的安妮》的作者是：加拿大女作家，露西·蒙哥玛丽《青铜葵花》的作者是：曹文轩故答案为：D。【点评】主要考查学生对文化常识的掌握，要求学生平时多记多积累。</t>
+  </si>
+  <si>
+    <t>下面的句子，按先后顺序排列正确的是（    ）①小溪的一边是果园．春天，花香弥漫，蜂飞蝶舞。②田野的尽头，连绵的山峰犹如大海里起伏的波涛。③溪水那么清澈、明净，水里的鱼儿快乐地游来游去。④山腰间的公路，像一条银灰色的绸带飘向远方。⑤一条小溪从我们村子里流过。⑥小溪的另一边是田野，如今沉甸甸的麦穗，正点着头报告丰收的喜讯。</t>
+  </si>
+  <si>
+    <t>A、④⑤③①⑥②</t>
+  </si>
+  <si>
+    <t>B、⑤③①⑥②④</t>
+  </si>
+  <si>
+    <t>C、⑤①⑥③②④</t>
+  </si>
+  <si>
+    <t>D、④⑤①⑥③②</t>
+  </si>
+  <si>
+    <t>【分析】连贯类题目做题时要注意把握基本内容，初步分层归类，先在小范围内排序，然后再考虑层次间的衔接，其中应先找出相关联词、代词以及表时间、地点的词语，然后据此进行句间连缀排列。在上面排列的基础之上，再诵读语段，检查确定。细读不难发现恰当的排序为：⑤③①⑥②④故答案为：B。【点评】该题考查对句子进行排序的能力，此外还考查学生对语段的整体把握能力、逻辑思维能力和语言组织能力。</t>
+  </si>
+  <si>
+    <t>下列说法错误的一句是（    ）</t>
+  </si>
+  <si>
+    <t>A、《少年闰土》节选自鲁迅小说《故乡》，里面的“我”不能说就是鲁迅。</t>
+  </si>
+  <si>
+    <t>B、“桃花潭水深千尺，不及汪伦送我情。”运用了夸张的修辞手法。</t>
+  </si>
+  <si>
+    <t>C、“奇妙的压缩空气是人们生产和生活的好帮手”缩句后是“奇妙的好帮手”。</t>
+  </si>
+  <si>
+    <t>D、“在晚会上，我看到了精彩的节目和动人的歌声”可以修改为“在晚会上，我看到了精彩的节目，听到了动人的歌声”。</t>
+  </si>
+  <si>
+    <t>修辞手法；句子排序、仿写；文化常识</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品内容及有关知识，比较判断正误。C、压缩空气是好帮手。A、B、D正确。故答案为：C【点评】此题考查学生对作品内容、文化常识、修辞的掌握的能力。</t>
+  </si>
+  <si>
+    <t>“不劳动，连棵花也养不活，这难道不是真理吗？”下面句子中与这句话意思不一样的一句是（    ）</t>
+  </si>
+  <si>
+    <t>A、不劳动，连棵花也养不活，这不会不是真理。</t>
+  </si>
+  <si>
+    <t>B、不劳动，连棵花也养不活，这怎么不是真理呢？</t>
+  </si>
+  <si>
+    <t>C、不劳动，连棵花也养不活，这难道是真理吗？</t>
+  </si>
+  <si>
+    <t>D、不劳动．连棵花也养不活，这是真理。</t>
+  </si>
+  <si>
+    <t>【分析】A双重否定句，与题干意思相符。B反问句，与题干意思相符。C反问句，但与题干意思相反。D陈述句，与题干意思相符。故答案为：C【点评】此题主要考查句式转换及对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>下列诗句中的“／”表示停顿，停顿正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、轻轻地／我／走了。正如我／轻轻地／来；我／轻轻地／招手，作别／西天的／云彩。</t>
+  </si>
+  <si>
+    <t>B、轻轻地我走／了，正如我／轻轻地／来；我／轻轻／地／招手，作别／西天的／云彩。</t>
+  </si>
+  <si>
+    <t>C、轻轻地／我／走了，正如我／轻轻／地／来；我／轻轻地／招手，作别西天／的／云彩。</t>
+  </si>
+  <si>
+    <t>D、轻轻／地／我走了，正如／我／轻轻地／来；我／轻轻地／招手，作别／西天的／云彩。</t>
+  </si>
+  <si>
+    <t>【分析】解答本题的关键在于读懂句子，理解句意，以意义划分节奏，正确划分节奏应为：轻轻地／我／走了。正如我／轻轻地／来；我／轻轻地／招手，作别／西天的／云彩。故答案为：A【点评】本题考查句子的朗读停顿。划分句子的朗读停顿一般坚持结构与意思原则即可。</t>
+  </si>
+  <si>
+    <t>根据下列诗句内容，按时间顺序排列正确的一组是（    ）①牧童遥指杏花村    ②草长莺飞二月天    ③每逢佳节倍思亲④牵牛织女渡河桥    ⑤爆竹声中一岁除    ⑥小荷才露尖尖角</t>
+  </si>
+  <si>
+    <t>A、①②⑥④③⑤</t>
+  </si>
+  <si>
+    <t>B、②①⑥④③⑤</t>
+  </si>
+  <si>
+    <t>C、②①⑥③④⑤</t>
+  </si>
+  <si>
+    <t>D、①②⑥③④⑤</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是理解诗句，①牧童遥指杏花村（清明时节，即四月）；②草长莺飞二月天 （二月）；③每逢佳节倍思亲（八月十五中秋节）；④牵牛织女渡河桥（七夕节）；⑤爆竹声中一岁除（除夕）；⑥小荷才露尖尖角（初夏）故答案为：B【点评】此题主要考查对诗句的理解及识记能力。</t>
+  </si>
+  <si>
+    <t>下列语句中注音有错误的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、虽与之俱学，弗（fú）若之矣（yǐ）。</t>
+  </si>
+  <si>
+    <t>B、深邃（suì）的眼睛，妩（wǔ）媚的笑容，像花儿般绽放。</t>
+  </si>
+  <si>
+    <t>C、孰（shú）为汝（rǔ）多知乎？</t>
+  </si>
+  <si>
+    <t>D、水的旋（xuàn）涡总是朝逆时针方向旋（xuán）转。</t>
+  </si>
+  <si>
+    <t>【分析】用普通话根据语境读词语，D“ 旋”是多音字。旋涡（xuàn改xuán） ；A、B、C正确。故答案为：D。【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
+  </si>
+  <si>
+    <t>划线字解释完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、欣然怒放（愤怒）        三年五载（年）</t>
+  </si>
+  <si>
+    <t>B、左顾右盼（盼望）        寝不安席（睡）</t>
+  </si>
+  <si>
+    <t>C、德高望重（名望）        默默无闻（用鼻子嗅）</t>
+  </si>
+  <si>
+    <t>D、不毛之地（生长五谷）    万象更新（形状，样子）</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。A欣然怒放（盛开）B左顾右盼（看）C默默无闻（出名）故答案为：D。【点评】本题考查学生对词语的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>下面没有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、走头无路    蜂拥而至    美不胜收</t>
+  </si>
+  <si>
+    <t>B、一版三眼    再接再厉    宾致如归</t>
+  </si>
+  <si>
+    <t>C、刻不容缓    淋漓尽致    豪情满怀</t>
+  </si>
+  <si>
+    <t>D、天涯海角    余音绕粱    见微知著</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A头——投、B致——至D粱——梁故答案为：C【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>选出划线字注音完全正确的一组（    ）馈赠  杂拌儿  忍俊不禁  蓝盔</t>
+  </si>
+  <si>
+    <t>A、kuì  pàn  jìn  kuī</t>
+  </si>
+  <si>
+    <t>B、kuì  bàn  jīn  kuī</t>
+  </si>
+  <si>
+    <t>C、guì  pàn  jìn  huī</t>
+  </si>
+  <si>
+    <t>D、guì  bàn  jīn  huī</t>
+  </si>
+  <si>
+    <t>【分析】考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。馈赠kuì ，声母不要读g ；杂拌儿bàn，声母不要读b ； 忍俊不禁jīn ，多音字，不要读jìn； 蓝盔kuī，声母不要读h 。故答案为：B。【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
+  </si>
+  <si>
+    <t>下列读音、字形都对的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、榛子（zhēn zi）    捐赠    蒸融    发愤图强</t>
+  </si>
+  <si>
+    <t>B、机械（jī jiè）     橱窗    诞生    卓有成效</t>
+  </si>
+  <si>
+    <t>C、兴旺（xīng wàng）  梗概    顽强    专心至志</t>
+  </si>
+  <si>
+    <t>D、游弋（yóu yè）     鸿毛    锻练    万象更新</t>
+  </si>
+  <si>
+    <t>【分析】本题为考查字形、字音题。字形、字音题的考查只要求识记字形、字音而不要求拼写,即侧重于考查识记、辨别、确定汉字、字音的能力,准确地判断其正确与否。B机械（jiè改为xiè）  C至——致   D游弋（yè改为yì）、练——炼。故答案为：A。【点评】本题考查学生对拼音、汉字的识记能力。</t>
+  </si>
+  <si>
+    <t>下面句子中横线处填哪个句子最合适（    ）书籍好比一架梯子，它引导我们登上知识的殿堂；书籍如同一把钥匙，__________。</t>
+  </si>
+  <si>
+    <t>A、它帮助我们开启智慧的大门</t>
+  </si>
+  <si>
+    <t>B、智慧的大门它帮助我们开启</t>
+  </si>
+  <si>
+    <t>C、我们靠它帮助开启智慧的大门</t>
+  </si>
+  <si>
+    <t>D、开启我们的智慧大门要它帮助</t>
+  </si>
+  <si>
+    <t>【分析】仿写句子，一般要根据例句，从形式（结构、修辞、句式、字数）和内容两方面入手进行仿写。应遵循：内容统一；结构一致；修辞相仿的要求。首先应注意运用了比喻的修辞，再注意句子结构。故答案为：A【点评】仿写答案丰富多彩，要做到原文内容一致、句式一致、修辞一致。</t>
+  </si>
+  <si>
+    <t>下面哪个句子划线成语运用有错误（    ）</t>
+  </si>
+  <si>
+    <t>A、在我们班，我考试拿第一已经是司空见惯的事了。</t>
+  </si>
+  <si>
+    <t>B、只要我们群策群力。没有什么攻克不了的困难。</t>
+  </si>
+  <si>
+    <t>C、小学要毕业了，我们德高望重的班长决定发动同学举办一场汇报演出。</t>
+  </si>
+  <si>
+    <t>D、我们班主任非常和蔼可亲  ， 大家都喜欢她。</t>
+  </si>
+  <si>
+    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．A项“司空见惯”指某事常见，不足为奇。与对应的语境相符。B项“群策群力”指发挥集体的作用，大家一起来想办法，贡献力量。与对应的语境相符。C项“德高望重”指品德高尚，声望很高。 多称颂年纪高而且大多是有名望的人。与对应的语境不符。D项“和蔼可亲”态度温和，容易接近。与对应的语境相符。故答案为：C。【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
+  </si>
+  <si>
+    <t>同学请你在毕业纪念册上留言，为了表达你和她（他）的深厚情谊，你觉得写下面哪句诗最合适（    ）</t>
+  </si>
+  <si>
+    <t>A、落红不是无情物，化作春泥更护花。</t>
+  </si>
+  <si>
+    <t>B、海内存知己，天涯若比邻。</t>
+  </si>
+  <si>
+    <t>C、千锤万凿出深山，烈火焚烧若等闲。</t>
+  </si>
+  <si>
+    <t>D、至今思项羽，不肯过江东。</t>
+  </si>
+  <si>
+    <t>【分析】解答此题的关键是先理解诗句。A落红不是无情物，化作春泥更护花。意思是：落花纷纷绝不是无情飘洒，为的是化作春泥培育出更多的新花。B海内存知己，天涯若比邻。意思是：四海之内有知己朋友，即使远在天边，也感觉象邻居一样近。C千锤万凿出深山，烈火焚烧若等闲。意思是：(石头)只有经过多次撞击才能从山上开采出来。它把烈火焚烧看成平平常常的事。 D至今思项羽，不肯过江东。意思是：人们到现在还思念项羽, 只因他不肯偷生回江东。故答案为：B。【点评】此题主要考查对诗句的理解及运用能力。</t>
+  </si>
+  <si>
+    <t>选择恰当的一组词填入横线处。（    ）网络中所看到的有些事情和真相是_______相反的．我们不能简单________地下结论。</t>
+  </si>
+  <si>
+    <t>A、断然；粗暴</t>
+  </si>
+  <si>
+    <t>B、断然；残暴</t>
+  </si>
+  <si>
+    <t>C、截然；粗暴</t>
+  </si>
+  <si>
+    <t>D、截然；残暴</t>
+  </si>
+  <si>
+    <t>【分析】选词填空中的备选词语大多数都是同义词或近义词，通过分析、比较，会发现它们之间会有细微差别。因此，选择时我们必须结合词语所在的语言环境，体会词语的区别，认真选择恰当的词语。断然：坚决;果断。截然：是完全的意思。粗暴：鲁莽暴躁。残暴：残忍凶暴。结合题意，第一空，应填“截然”；第二空，应填“粗暴”故答案为：C【点评】说话和写作时要正确使用词语，注意词语的搭配和组合；正确理解词语在具体语言环境中的意义；注意词语使用过程中的感情色彩的变化；加强对教材注释和课文后列出的字词背诵积累等。</t>
+  </si>
+  <si>
+    <t>“老师夸李明的这篇作文内容独出心裁，很值得大家借鉴。”这句话中“裁”的解释在字典中有以下几种，你认为该选哪种（    ）</t>
+  </si>
+  <si>
+    <t>A、用剪子剪或刀割</t>
+  </si>
+  <si>
+    <t>B、削减，去掉一部分</t>
+  </si>
+  <si>
+    <t>C、决定、判断</t>
+  </si>
+  <si>
+    <t>D、安排取舍</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。“独出心裁”中的 “裁”： 安排取舍。D项符合题意。故答案为：D。【点评】本题考查学生对字的理解。可结合语境、课后注释或查字典理解字义。</t>
+  </si>
+  <si>
+    <t>下面哪一组划线字的读音完全正确（    ）</t>
+  </si>
+  <si>
+    <t>A、喧哗（xuān）    避免（bì）         阻挠（ráo）</t>
+  </si>
+  <si>
+    <t>B、附和（hè）      转椅（zhuǎn）     知觉（jué）</t>
+  </si>
+  <si>
+    <t>C、瑰丽（guī）     气魄（pó）        魁梧（kuí）</t>
+  </si>
+  <si>
+    <t>D、描述（shù）     清脆（chuì）      振奋（zhèn）</t>
+  </si>
+  <si>
+    <t>【分析】此题考查学生辨析字音的能力。A项 阻挠（ráo改为náo）B项 转椅（zhuǎn改为zhuàn）D项 清脆（chuì改为cuì） 故答案为：C【点评】准确识记字音，要掌握常用多音多义字的正确读音，注意纠正方言中跟普通话读音不一致的字音，关键在于把词语的形音义结合起来，音随形或义变。不同的读音表义不同，用法不同，词性往往也不同，可以根据意思来记住不同的音节。</t>
   </si>
 </sst>
 </file>
@@ -543,18 +2652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,234 +2693,3268 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
         <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" customHeight="1">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" customHeight="1">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" customHeight="1">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" customHeight="1">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" customHeight="1">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1">
+      <c r="A43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" customHeight="1">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1">
+      <c r="A45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" customHeight="1">
+      <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" customHeight="1">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" customHeight="1">
+      <c r="A49" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20" customHeight="1">
+      <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" customHeight="1">
+      <c r="A51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20" customHeight="1">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20" customHeight="1">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20" customHeight="1">
+      <c r="A57" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20" customHeight="1">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20" customHeight="1">
+      <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20" customHeight="1">
+      <c r="A60" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20" customHeight="1">
+      <c r="A61" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" t="s">
+        <v>312</v>
+      </c>
+      <c r="F61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20" customHeight="1">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20" customHeight="1">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" t="s">
+        <v>322</v>
+      </c>
+      <c r="E63" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20" customHeight="1">
+      <c r="A64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20" customHeight="1">
+      <c r="A65" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20" customHeight="1">
+      <c r="A66" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66" t="s">
+        <v>342</v>
+      </c>
+      <c r="F66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="20" customHeight="1">
+      <c r="A67" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" t="s">
+        <v>346</v>
+      </c>
+      <c r="D67" t="s">
+        <v>347</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20" customHeight="1">
+      <c r="A68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" t="s">
+        <v>351</v>
+      </c>
+      <c r="D68" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" t="s">
+        <v>353</v>
+      </c>
+      <c r="F68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="20" customHeight="1">
+      <c r="A69" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" t="s">
+        <v>356</v>
+      </c>
+      <c r="C69" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F69" t="s">
+        <v>360</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="20" customHeight="1">
+      <c r="A70" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" t="s">
+        <v>365</v>
+      </c>
+      <c r="E70" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="20" customHeight="1">
+      <c r="A71" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" t="s">
+        <v>372</v>
+      </c>
+      <c r="F71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="20" customHeight="1">
+      <c r="A72" t="s">
+        <v>374</v>
+      </c>
+      <c r="B72" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" t="s">
+        <v>376</v>
+      </c>
+      <c r="D72" t="s">
+        <v>377</v>
+      </c>
+      <c r="E72" t="s">
+        <v>378</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="20" customHeight="1">
+      <c r="A73" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" t="s">
+        <v>384</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20" customHeight="1">
+      <c r="A78" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" t="s">
+        <v>388</v>
+      </c>
+      <c r="D78" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="20" customHeight="1">
+      <c r="A79" t="s">
+        <v>392</v>
+      </c>
+      <c r="B79" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D79" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20" customHeight="1">
+      <c r="A80" t="s">
+        <v>397</v>
+      </c>
+      <c r="B80" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" t="s">
+        <v>399</v>
+      </c>
+      <c r="D80" t="s">
+        <v>400</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="20" customHeight="1">
+      <c r="A81" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" t="s">
+        <v>403</v>
+      </c>
+      <c r="C81" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" t="s">
+        <v>405</v>
+      </c>
+      <c r="F81" t="s">
+        <v>221</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="20" customHeight="1">
+      <c r="A82" t="s">
+        <v>407</v>
+      </c>
+      <c r="B82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" t="s">
+        <v>409</v>
+      </c>
+      <c r="D82" t="s">
+        <v>410</v>
+      </c>
+      <c r="F82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="20" customHeight="1">
+      <c r="A83" t="s">
+        <v>412</v>
+      </c>
+      <c r="B83" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" t="s">
+        <v>414</v>
+      </c>
+      <c r="D83" t="s">
+        <v>415</v>
+      </c>
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="20" customHeight="1">
+      <c r="A84" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" t="s">
+        <v>418</v>
+      </c>
+      <c r="C84" t="s">
+        <v>419</v>
+      </c>
+      <c r="D84" t="s">
+        <v>420</v>
+      </c>
+      <c r="F84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="20" customHeight="1">
+      <c r="A85" t="s">
+        <v>422</v>
+      </c>
+      <c r="B85" t="s">
+        <v>423</v>
+      </c>
+      <c r="C85" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" t="s">
+        <v>425</v>
+      </c>
+      <c r="E85" t="s">
+        <v>426</v>
+      </c>
+      <c r="F85" t="s">
+        <v>221</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20" customHeight="1">
+      <c r="A86" t="s">
+        <v>428</v>
+      </c>
+      <c r="B86" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="20" customHeight="1">
+      <c r="A87" t="s">
+        <v>434</v>
+      </c>
+      <c r="B87" t="s">
+        <v>435</v>
+      </c>
+      <c r="C87" t="s">
+        <v>436</v>
+      </c>
+      <c r="D87" t="s">
+        <v>437</v>
+      </c>
+      <c r="E87" t="s">
+        <v>438</v>
+      </c>
+      <c r="F87" t="s">
+        <v>439</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="20" customHeight="1">
+      <c r="A88" t="s">
+        <v>441</v>
+      </c>
+      <c r="B88" t="s">
+        <v>442</v>
+      </c>
+      <c r="C88" t="s">
+        <v>443</v>
+      </c>
+      <c r="D88" t="s">
+        <v>444</v>
+      </c>
+      <c r="E88" t="s">
+        <v>445</v>
+      </c>
+      <c r="F88" t="s">
+        <v>439</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="20" customHeight="1">
+      <c r="A89" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" t="s">
+        <v>449</v>
+      </c>
+      <c r="D89" t="s">
+        <v>450</v>
+      </c>
+      <c r="E89" t="s">
+        <v>451</v>
+      </c>
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="20" customHeight="1">
+      <c r="A90" t="s">
+        <v>453</v>
+      </c>
+      <c r="B90" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" t="s">
+        <v>455</v>
+      </c>
+      <c r="D90" t="s">
+        <v>456</v>
+      </c>
+      <c r="E90" t="s">
+        <v>457</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20" customHeight="1">
+      <c r="A91" t="s">
+        <v>459</v>
+      </c>
+      <c r="B91" t="s">
+        <v>460</v>
+      </c>
+      <c r="C91" t="s">
+        <v>461</v>
+      </c>
+      <c r="D91" t="s">
+        <v>462</v>
+      </c>
+      <c r="E91" t="s">
+        <v>463</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20" customHeight="1">
+      <c r="A92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92" t="s">
+        <v>466</v>
+      </c>
+      <c r="C92" t="s">
+        <v>467</v>
+      </c>
+      <c r="D92" t="s">
+        <v>468</v>
+      </c>
+      <c r="F92" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="20" customHeight="1">
+      <c r="A93" t="s">
+        <v>470</v>
+      </c>
+      <c r="B93" t="s">
+        <v>471</v>
+      </c>
+      <c r="C93" t="s">
+        <v>472</v>
+      </c>
+      <c r="D93" t="s">
+        <v>473</v>
+      </c>
+      <c r="E93" t="s">
+        <v>474</v>
+      </c>
+      <c r="F93" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="20" customHeight="1">
+      <c r="A94" t="s">
+        <v>476</v>
+      </c>
+      <c r="B94" t="s">
+        <v>477</v>
+      </c>
+      <c r="C94" t="s">
+        <v>478</v>
+      </c>
+      <c r="D94" t="s">
+        <v>479</v>
+      </c>
+      <c r="E94" t="s">
+        <v>480</v>
+      </c>
+      <c r="F94" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="20" customHeight="1">
+      <c r="A95" t="s">
+        <v>482</v>
+      </c>
+      <c r="B95" t="s">
+        <v>483</v>
+      </c>
+      <c r="C95" t="s">
+        <v>484</v>
+      </c>
+      <c r="D95" t="s">
+        <v>485</v>
+      </c>
+      <c r="E95" t="s">
+        <v>486</v>
+      </c>
+      <c r="F95" t="s">
+        <v>184</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="20" customHeight="1">
+      <c r="A96" t="s">
+        <v>488</v>
+      </c>
+      <c r="B96" t="s">
+        <v>489</v>
+      </c>
+      <c r="C96" t="s">
+        <v>490</v>
+      </c>
+      <c r="D96" t="s">
+        <v>491</v>
+      </c>
+      <c r="E96" t="s">
+        <v>492</v>
+      </c>
+      <c r="F96" t="s">
+        <v>221</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="20" customHeight="1">
+      <c r="A97" t="s">
+        <v>494</v>
+      </c>
+      <c r="B97" t="s">
+        <v>495</v>
+      </c>
+      <c r="C97" t="s">
+        <v>496</v>
+      </c>
+      <c r="D97" t="s">
+        <v>497</v>
+      </c>
+      <c r="E97" t="s">
+        <v>498</v>
+      </c>
+      <c r="F97" t="s">
+        <v>499</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="20" customHeight="1">
+      <c r="A98" t="s">
+        <v>501</v>
+      </c>
+      <c r="B98" t="s">
+        <v>502</v>
+      </c>
+      <c r="C98" t="s">
+        <v>503</v>
+      </c>
+      <c r="D98" t="s">
+        <v>504</v>
+      </c>
+      <c r="E98" t="s">
+        <v>505</v>
+      </c>
+      <c r="F98" t="s">
+        <v>506</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="20" customHeight="1">
+      <c r="A99" t="s">
+        <v>508</v>
+      </c>
+      <c r="B99" t="s">
+        <v>509</v>
+      </c>
+      <c r="C99" t="s">
+        <v>510</v>
+      </c>
+      <c r="D99" t="s">
+        <v>511</v>
+      </c>
+      <c r="E99" t="s">
+        <v>512</v>
+      </c>
+      <c r="F99" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="20" customHeight="1">
+      <c r="A100" t="s">
+        <v>514</v>
+      </c>
+      <c r="B100" t="s">
+        <v>515</v>
+      </c>
+      <c r="C100" t="s">
+        <v>516</v>
+      </c>
+      <c r="D100" t="s">
+        <v>517</v>
+      </c>
+      <c r="E100" t="s">
+        <v>518</v>
+      </c>
+      <c r="F100" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="20" customHeight="1">
+      <c r="A101" t="s">
+        <v>520</v>
+      </c>
+      <c r="B101" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" t="s">
+        <v>522</v>
+      </c>
+      <c r="D101" t="s">
+        <v>523</v>
+      </c>
+      <c r="E101" t="s">
+        <v>524</v>
+      </c>
+      <c r="F101" t="s">
+        <v>174</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="20" customHeight="1">
+      <c r="A102" t="s">
+        <v>526</v>
+      </c>
+      <c r="B102" t="s">
+        <v>527</v>
+      </c>
+      <c r="C102" t="s">
+        <v>528</v>
+      </c>
+      <c r="D102" t="s">
+        <v>529</v>
+      </c>
+      <c r="E102" t="s">
+        <v>530</v>
+      </c>
+      <c r="F102" t="s">
+        <v>531</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="20" customHeight="1">
+      <c r="A103" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103" t="s">
+        <v>534</v>
+      </c>
+      <c r="C103" t="s">
+        <v>535</v>
+      </c>
+      <c r="D103" t="s">
+        <v>536</v>
+      </c>
+      <c r="E103" t="s">
+        <v>537</v>
+      </c>
+      <c r="F103" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="20" customHeight="1">
+      <c r="A104" t="s">
+        <v>539</v>
+      </c>
+      <c r="B104" t="s">
+        <v>540</v>
+      </c>
+      <c r="C104" t="s">
+        <v>541</v>
+      </c>
+      <c r="D104" t="s">
+        <v>542</v>
+      </c>
+      <c r="E104" t="s">
+        <v>543</v>
+      </c>
+      <c r="F104" t="s">
+        <v>544</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="20" customHeight="1">
+      <c r="A105" t="s">
+        <v>546</v>
+      </c>
+      <c r="B105" t="s">
+        <v>547</v>
+      </c>
+      <c r="C105" t="s">
+        <v>548</v>
+      </c>
+      <c r="D105" t="s">
+        <v>549</v>
+      </c>
+      <c r="E105" t="s">
+        <v>550</v>
+      </c>
+      <c r="F105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="20" customHeight="1">
+      <c r="A106" t="s">
+        <v>552</v>
+      </c>
+      <c r="B106" t="s">
+        <v>553</v>
+      </c>
+      <c r="C106" t="s">
+        <v>554</v>
+      </c>
+      <c r="D106" t="s">
+        <v>555</v>
+      </c>
+      <c r="E106" t="s">
+        <v>556</v>
+      </c>
+      <c r="F106" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="20" customHeight="1">
+      <c r="A107" t="s">
+        <v>558</v>
+      </c>
+      <c r="B107" t="s">
+        <v>559</v>
+      </c>
+      <c r="C107" t="s">
+        <v>560</v>
+      </c>
+      <c r="D107" t="s">
+        <v>561</v>
+      </c>
+      <c r="E107" t="s">
+        <v>562</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="20" customHeight="1">
+      <c r="A108" t="s">
+        <v>564</v>
+      </c>
+      <c r="B108" t="s">
+        <v>565</v>
+      </c>
+      <c r="C108" t="s">
+        <v>566</v>
+      </c>
+      <c r="D108" t="s">
+        <v>567</v>
+      </c>
+      <c r="E108" t="s">
+        <v>568</v>
+      </c>
+      <c r="F108" t="s">
+        <v>569</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="20" customHeight="1">
+      <c r="A109" t="s">
+        <v>571</v>
+      </c>
+      <c r="B109" t="s">
+        <v>572</v>
+      </c>
+      <c r="C109" t="s">
+        <v>573</v>
+      </c>
+      <c r="D109" t="s">
+        <v>574</v>
+      </c>
+      <c r="E109" t="s">
+        <v>575</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="20" customHeight="1">
+      <c r="A110" t="s">
+        <v>577</v>
+      </c>
+      <c r="B110" t="s">
+        <v>578</v>
+      </c>
+      <c r="C110" t="s">
+        <v>579</v>
+      </c>
+      <c r="D110" t="s">
+        <v>580</v>
+      </c>
+      <c r="E110" t="s">
+        <v>581</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="20" customHeight="1">
+      <c r="A111" t="s">
+        <v>583</v>
+      </c>
+      <c r="B111" t="s">
+        <v>584</v>
+      </c>
+      <c r="C111" t="s">
+        <v>585</v>
+      </c>
+      <c r="D111" t="s">
+        <v>586</v>
+      </c>
+      <c r="E111" t="s">
+        <v>587</v>
+      </c>
+      <c r="F111" t="s">
+        <v>221</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="20" customHeight="1">
+      <c r="A112" t="s">
+        <v>589</v>
+      </c>
+      <c r="B112" t="s">
+        <v>590</v>
+      </c>
+      <c r="C112" t="s">
+        <v>591</v>
+      </c>
+      <c r="D112" t="s">
+        <v>592</v>
+      </c>
+      <c r="E112" t="s">
+        <v>593</v>
+      </c>
+      <c r="F112" t="s">
+        <v>594</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="20" customHeight="1">
+      <c r="A113" t="s">
+        <v>596</v>
+      </c>
+      <c r="B113" t="s">
+        <v>597</v>
+      </c>
+      <c r="C113" t="s">
+        <v>598</v>
+      </c>
+      <c r="D113" t="s">
+        <v>599</v>
+      </c>
+      <c r="E113" t="s">
+        <v>600</v>
+      </c>
+      <c r="F113" t="s">
+        <v>58</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="20" customHeight="1">
+      <c r="A114" t="s">
+        <v>602</v>
+      </c>
+      <c r="B114" t="s">
+        <v>603</v>
+      </c>
+      <c r="C114" t="s">
+        <v>604</v>
+      </c>
+      <c r="D114" t="s">
+        <v>605</v>
+      </c>
+      <c r="E114" t="s">
+        <v>606</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="20" customHeight="1">
+      <c r="A115" t="s">
+        <v>608</v>
+      </c>
+      <c r="B115" t="s">
+        <v>609</v>
+      </c>
+      <c r="C115" t="s">
+        <v>610</v>
+      </c>
+      <c r="D115" t="s">
+        <v>611</v>
+      </c>
+      <c r="E115" t="s">
+        <v>612</v>
+      </c>
+      <c r="F115" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="20" customHeight="1">
+      <c r="A116" t="s">
+        <v>614</v>
+      </c>
+      <c r="B116" t="s">
+        <v>615</v>
+      </c>
+      <c r="C116" t="s">
+        <v>616</v>
+      </c>
+      <c r="D116" t="s">
+        <v>617</v>
+      </c>
+      <c r="E116" t="s">
+        <v>618</v>
+      </c>
+      <c r="F116" t="s">
+        <v>58</v>
+      </c>
+      <c r="G116" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="20" customHeight="1">
+      <c r="A117" t="s">
+        <v>620</v>
+      </c>
+      <c r="B117" t="s">
+        <v>621</v>
+      </c>
+      <c r="C117" t="s">
+        <v>622</v>
+      </c>
+      <c r="D117" t="s">
+        <v>623</v>
+      </c>
+      <c r="E117" t="s">
+        <v>624</v>
+      </c>
+      <c r="F117" t="s">
+        <v>531</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="20" customHeight="1">
+      <c r="A118" t="s">
+        <v>626</v>
+      </c>
+      <c r="B118" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" t="s">
+        <v>627</v>
+      </c>
+      <c r="D118" t="s">
+        <v>395</v>
+      </c>
+      <c r="E118" t="s">
+        <v>628</v>
+      </c>
+      <c r="F118" t="s">
+        <v>167</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="20" customHeight="1">
+      <c r="A119" t="s">
+        <v>630</v>
+      </c>
+      <c r="B119" t="s">
+        <v>631</v>
+      </c>
+      <c r="C119" t="s">
+        <v>632</v>
+      </c>
+      <c r="D119" t="s">
+        <v>633</v>
+      </c>
+      <c r="E119" t="s">
+        <v>634</v>
+      </c>
+      <c r="F119" t="s">
+        <v>221</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="20" customHeight="1">
+      <c r="A120" t="s">
+        <v>636</v>
+      </c>
+      <c r="B120" t="s">
+        <v>637</v>
+      </c>
+      <c r="C120" t="s">
+        <v>638</v>
+      </c>
+      <c r="D120" t="s">
+        <v>639</v>
+      </c>
+      <c r="E120" t="s">
+        <v>640</v>
+      </c>
+      <c r="F120" t="s">
+        <v>174</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="20" customHeight="1">
+      <c r="A121" t="s">
+        <v>642</v>
+      </c>
+      <c r="B121" t="s">
+        <v>643</v>
+      </c>
+      <c r="C121" t="s">
+        <v>644</v>
+      </c>
+      <c r="D121" t="s">
+        <v>645</v>
+      </c>
+      <c r="E121" t="s">
+        <v>646</v>
+      </c>
+      <c r="F121" t="s">
+        <v>506</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="20" customHeight="1">
+      <c r="A122" t="s">
+        <v>648</v>
+      </c>
+      <c r="B122" t="s">
+        <v>649</v>
+      </c>
+      <c r="C122" t="s">
+        <v>650</v>
+      </c>
+      <c r="D122" t="s">
+        <v>651</v>
+      </c>
+      <c r="E122" t="s">
+        <v>652</v>
+      </c>
+      <c r="F122" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="20" customHeight="1">
+      <c r="A123" t="s">
+        <v>654</v>
+      </c>
+      <c r="B123" t="s">
+        <v>655</v>
+      </c>
+      <c r="C123" t="s">
+        <v>656</v>
+      </c>
+      <c r="D123" t="s">
+        <v>657</v>
+      </c>
+      <c r="E123" t="s">
+        <v>658</v>
+      </c>
+      <c r="F123" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="20" customHeight="1">
+      <c r="A124" t="s">
+        <v>660</v>
+      </c>
+      <c r="B124" t="s">
+        <v>661</v>
+      </c>
+      <c r="C124" t="s">
+        <v>662</v>
+      </c>
+      <c r="D124" t="s">
+        <v>663</v>
+      </c>
+      <c r="E124" t="s">
+        <v>664</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="20" customHeight="1">
+      <c r="A125" t="s">
+        <v>666</v>
+      </c>
+      <c r="B125" t="s">
+        <v>667</v>
+      </c>
+      <c r="C125" t="s">
+        <v>668</v>
+      </c>
+      <c r="D125" t="s">
+        <v>669</v>
+      </c>
+      <c r="E125" t="s">
+        <v>670</v>
+      </c>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4</v>
+      </c>
+      <c r="H125" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="20" customHeight="1">
+      <c r="A126" t="s">
+        <v>672</v>
+      </c>
+      <c r="B126" t="s">
+        <v>673</v>
+      </c>
+      <c r="C126" t="s">
+        <v>674</v>
+      </c>
+      <c r="D126" t="s">
+        <v>675</v>
+      </c>
+      <c r="E126" t="s">
+        <v>676</v>
+      </c>
+      <c r="F126" t="s">
+        <v>531</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="20" customHeight="1">
+      <c r="A127" t="s">
+        <v>678</v>
+      </c>
+      <c r="B127" t="s">
+        <v>679</v>
+      </c>
+      <c r="C127" t="s">
+        <v>680</v>
+      </c>
+      <c r="D127" t="s">
+        <v>681</v>
+      </c>
+      <c r="E127" t="s">
+        <v>682</v>
+      </c>
+      <c r="F127" t="s">
+        <v>683</v>
+      </c>
+      <c r="G127" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="20" customHeight="1">
+      <c r="A128" t="s">
+        <v>685</v>
+      </c>
+      <c r="B128" t="s">
+        <v>686</v>
+      </c>
+      <c r="C128" t="s">
+        <v>687</v>
+      </c>
+      <c r="D128" t="s">
+        <v>688</v>
+      </c>
+      <c r="E128" t="s">
+        <v>689</v>
+      </c>
+      <c r="F128" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="20" customHeight="1">
+      <c r="A129" t="s">
+        <v>691</v>
+      </c>
+      <c r="B129" t="s">
+        <v>692</v>
+      </c>
+      <c r="C129" t="s">
+        <v>693</v>
+      </c>
+      <c r="D129" t="s">
+        <v>694</v>
+      </c>
+      <c r="E129" t="s">
+        <v>695</v>
+      </c>
+      <c r="F129" t="s">
+        <v>221</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="20" customHeight="1">
+      <c r="A130" t="s">
+        <v>697</v>
+      </c>
+      <c r="B130" t="s">
+        <v>698</v>
+      </c>
+      <c r="C130" t="s">
+        <v>699</v>
+      </c>
+      <c r="D130" t="s">
+        <v>700</v>
+      </c>
+      <c r="E130" t="s">
+        <v>701</v>
+      </c>
+      <c r="F130" t="s">
+        <v>221</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="20" customHeight="1">
+      <c r="A131" t="s">
+        <v>703</v>
+      </c>
+      <c r="B131" t="s">
+        <v>704</v>
+      </c>
+      <c r="C131" t="s">
+        <v>705</v>
+      </c>
+      <c r="D131" t="s">
+        <v>706</v>
+      </c>
+      <c r="E131" t="s">
+        <v>707</v>
+      </c>
+      <c r="F131" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="20" customHeight="1">
+      <c r="A132" t="s">
+        <v>709</v>
+      </c>
+      <c r="B132" t="s">
+        <v>710</v>
+      </c>
+      <c r="C132" t="s">
+        <v>711</v>
+      </c>
+      <c r="D132" t="s">
+        <v>712</v>
+      </c>
+      <c r="E132" t="s">
+        <v>713</v>
+      </c>
+      <c r="F132" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="20" customHeight="1">
+      <c r="A133" t="s">
+        <v>715</v>
+      </c>
+      <c r="B133" t="s">
+        <v>716</v>
+      </c>
+      <c r="C133" t="s">
+        <v>717</v>
+      </c>
+      <c r="D133" t="s">
+        <v>718</v>
+      </c>
+      <c r="E133" t="s">
+        <v>719</v>
+      </c>
+      <c r="F133" t="s">
+        <v>51</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="20" customHeight="1">
+      <c r="A134" t="s">
+        <v>721</v>
+      </c>
+      <c r="B134" t="s">
+        <v>722</v>
+      </c>
+      <c r="C134" t="s">
+        <v>723</v>
+      </c>
+      <c r="D134" t="s">
+        <v>724</v>
+      </c>
+      <c r="E134" t="s">
+        <v>725</v>
+      </c>
+      <c r="F134" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="20" customHeight="1">
+      <c r="A135" t="s">
+        <v>727</v>
+      </c>
+      <c r="B135" t="s">
+        <v>728</v>
+      </c>
+      <c r="C135" t="s">
+        <v>729</v>
+      </c>
+      <c r="D135" t="s">
+        <v>730</v>
+      </c>
+      <c r="E135" t="s">
+        <v>731</v>
+      </c>
+      <c r="F135" t="s">
+        <v>284</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="20" customHeight="1">
+      <c r="A136" t="s">
+        <v>733</v>
+      </c>
+      <c r="B136" t="s">
+        <v>734</v>
+      </c>
+      <c r="C136" t="s">
+        <v>735</v>
+      </c>
+      <c r="D136" t="s">
+        <v>736</v>
+      </c>
+      <c r="E136" t="s">
+        <v>737</v>
+      </c>
+      <c r="F136" t="s">
+        <v>167</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="20" customHeight="1">
+      <c r="A137" t="s">
+        <v>739</v>
+      </c>
+      <c r="B137" t="s">
+        <v>740</v>
+      </c>
+      <c r="C137" t="s">
+        <v>741</v>
+      </c>
+      <c r="D137" t="s">
+        <v>742</v>
+      </c>
+      <c r="E137" t="s">
+        <v>743</v>
+      </c>
+      <c r="F137" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="20" customHeight="1">
+      <c r="A138" t="s">
+        <v>745</v>
+      </c>
+      <c r="B138" t="s">
+        <v>746</v>
+      </c>
+      <c r="C138" t="s">
+        <v>747</v>
+      </c>
+      <c r="D138" t="s">
+        <v>748</v>
+      </c>
+      <c r="E138" t="s">
+        <v>749</v>
+      </c>
+      <c r="F138" t="s">
+        <v>221</v>
+      </c>
+      <c r="G138" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="20" customHeight="1">
+      <c r="A139" t="s">
+        <v>751</v>
+      </c>
+      <c r="B139" t="s">
+        <v>752</v>
+      </c>
+      <c r="C139" t="s">
+        <v>753</v>
+      </c>
+      <c r="D139" t="s">
+        <v>754</v>
+      </c>
+      <c r="E139" t="s">
+        <v>755</v>
+      </c>
+      <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="20" customHeight="1">
+      <c r="A140" t="s">
+        <v>757</v>
+      </c>
+      <c r="B140" t="s">
+        <v>758</v>
+      </c>
+      <c r="C140" t="s">
+        <v>759</v>
+      </c>
+      <c r="D140" t="s">
+        <v>760</v>
+      </c>
+      <c r="E140" t="s">
+        <v>761</v>
+      </c>
+      <c r="F140" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" t="s">
+        <v>4</v>
+      </c>
+      <c r="H140" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="20" customHeight="1">
+      <c r="A141" t="s">
+        <v>763</v>
+      </c>
+      <c r="B141" t="s">
+        <v>764</v>
+      </c>
+      <c r="C141" t="s">
+        <v>765</v>
+      </c>
+      <c r="D141" t="s">
+        <v>766</v>
+      </c>
+      <c r="E141" t="s">
+        <v>767</v>
+      </c>
+      <c r="F141" t="s">
+        <v>58</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
